--- a/data_month/zb/价格指数/居民消费价格分类指数(上年同月=100)/食品类城市居民消费价格指数(上年同月=100).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上年同月=100)/食品类城市居民消费价格指数(上年同月=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -478,547 +478,547 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年10月</t>
+          <t>2000-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.5</v>
+        <v>97.8</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>92</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>95.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="F2" t="n">
-        <v>91.2</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>96.3</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>91.3</v>
+        <v>121.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年11月</t>
+          <t>2000-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.6</v>
+        <v>100</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>93.3</v>
+        <v>87</v>
       </c>
       <c r="E3" t="n">
-        <v>97.90000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>93.8</v>
+        <v>73.7</v>
       </c>
       <c r="G3" t="n">
-        <v>99.09999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>106.5</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年12月</t>
+          <t>2000-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.6</v>
+        <v>102</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
+        <v>86</v>
+      </c>
+      <c r="E4" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="G4" t="n">
         <v>96.40000000000001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="F4" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="G4" t="n">
-        <v>99.90000000000001</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>104.8</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2000年1月</t>
+          <t>2000-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>97.8</v>
+        <v>105.8</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>87.09999999999999</v>
+        <v>85.8</v>
       </c>
       <c r="E5" t="n">
-        <v>93.7</v>
+        <v>99.2</v>
       </c>
       <c r="F5" t="n">
-        <v>78.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="G5" t="n">
-        <v>96.90000000000001</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>121.6</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2000年2月</t>
+          <t>2000-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100</v>
+        <v>106.5</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>87</v>
+        <v>86.2</v>
       </c>
       <c r="E6" t="n">
-        <v>94.59999999999999</v>
+        <v>102.3</v>
       </c>
       <c r="F6" t="n">
-        <v>73.7</v>
+        <v>80.2</v>
       </c>
       <c r="G6" t="n">
-        <v>98.5</v>
+        <v>96.7</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>138</v>
+        <v>92.59999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2000年3月</t>
+          <t>2000-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>102</v>
+        <v>105.3</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>86</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>94.3</v>
+        <v>103.1</v>
       </c>
       <c r="F7" t="n">
-        <v>73.40000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>96.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2000年4月</t>
+          <t>2000-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>105.8</v>
+        <v>104.1</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>85.8</v>
+        <v>87.2</v>
       </c>
       <c r="E8" t="n">
-        <v>99.2</v>
+        <v>102.2</v>
       </c>
       <c r="F8" t="n">
-        <v>76.5</v>
+        <v>82.3</v>
       </c>
       <c r="G8" t="n">
-        <v>95.90000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>99.40000000000001</v>
+        <v>92.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2000年5月</t>
+          <t>2000-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>106.5</v>
+        <v>102.5</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>86.2</v>
+        <v>88.2</v>
       </c>
       <c r="E9" t="n">
-        <v>102.3</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>80.2</v>
+        <v>94</v>
       </c>
       <c r="G9" t="n">
-        <v>96.7</v>
+        <v>97.3</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>92.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2000年6月</t>
+          <t>2000-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>105.3</v>
+        <v>101.2</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>86.40000000000001</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>103.1</v>
+        <v>94.7</v>
       </c>
       <c r="F10" t="n">
-        <v>79.59999999999999</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>97.5</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>94</v>
+        <v>95.09999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2000年7月</t>
+          <t>2000-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>104.1</v>
+        <v>99.5</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>87.2</v>
+        <v>92</v>
       </c>
       <c r="E11" t="n">
-        <v>102.2</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>82.3</v>
+        <v>91.2</v>
       </c>
       <c r="G11" t="n">
-        <v>97.59999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>92.3</v>
+        <v>91.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2000年8月</t>
+          <t>2000-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>102.5</v>
+        <v>101.6</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>88.2</v>
+        <v>93.3</v>
       </c>
       <c r="E12" t="n">
-        <v>96.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>94</v>
+        <v>93.8</v>
       </c>
       <c r="G12" t="n">
-        <v>97.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>99.40000000000001</v>
+        <v>106.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2000年9月</t>
+          <t>2000-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>101.2</v>
+        <v>101.6</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>89.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>94.7</v>
+        <v>99.7</v>
       </c>
       <c r="F13" t="n">
-        <v>89.90000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>96.09999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>95.09999999999999</v>
+        <v>104.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2001年10月</t>
+          <t>2001-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>97.09999999999999</v>
+        <v>102.4636</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>101.2</v>
+        <v>96.41930000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>101.1</v>
+        <v>103.1852</v>
       </c>
       <c r="F14" t="n">
-        <v>112</v>
+        <v>98.0311</v>
       </c>
       <c r="G14" t="n">
-        <v>100.9</v>
+        <v>99.6681</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>106.4</v>
+        <v>95.3126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2001年11月</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>96.8</v>
+        <v>97</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>101.3</v>
+        <v>96.8</v>
       </c>
       <c r="E15" t="n">
-        <v>100.3</v>
+        <v>101.9</v>
       </c>
       <c r="F15" t="n">
-        <v>108.6</v>
+        <v>97.2</v>
       </c>
       <c r="G15" t="n">
-        <v>99.2</v>
+        <v>96.5</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>93.59999999999999</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2001年12月</t>
+          <t>2001-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.09999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>100.3</v>
+        <v>97.8</v>
       </c>
       <c r="E16" t="n">
-        <v>100.5</v>
+        <v>102.4</v>
       </c>
       <c r="F16" t="n">
-        <v>107.7</v>
+        <v>101.5</v>
       </c>
       <c r="G16" t="n">
-        <v>99.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>95.3</v>
+        <v>91.40000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2001年1月</t>
+          <t>2001-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>102.4636</v>
+        <v>96.8</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>96.41930000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>103.1852</v>
+        <v>102.9</v>
       </c>
       <c r="F17" t="n">
-        <v>98.0311</v>
+        <v>106.3</v>
       </c>
       <c r="G17" t="n">
-        <v>99.6681</v>
+        <v>101.6</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>95.3126</v>
+        <v>109.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2001年2月</t>
+          <t>2001-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>97</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>96.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>101.9</v>
+        <v>102.8</v>
       </c>
       <c r="F18" t="n">
-        <v>97.2</v>
+        <v>108.2</v>
       </c>
       <c r="G18" t="n">
-        <v>96.5</v>
+        <v>102.1</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>79.7</v>
+        <v>116.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2001年3月</t>
+          <t>2001-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98.40000000000001</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>97.8</v>
+        <v>99</v>
       </c>
       <c r="E19" t="n">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="F19" t="n">
-        <v>101.5</v>
+        <v>109.3</v>
       </c>
       <c r="G19" t="n">
-        <v>98.90000000000001</v>
+        <v>101.2</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>91.40000000000001</v>
+        <v>115.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2001年4月</t>
+          <t>2001-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>96.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>98.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>102.9</v>
+        <v>101.8</v>
       </c>
       <c r="F20" t="n">
-        <v>106.3</v>
+        <v>113.4</v>
       </c>
       <c r="G20" t="n">
-        <v>101.6</v>
+        <v>101.8</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>109.2</v>
+        <v>122.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2001年5月</t>
+          <t>2001-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>94.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>98.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>102.8</v>
+        <v>100.8</v>
       </c>
       <c r="F21" t="n">
-        <v>108.2</v>
+        <v>104.6</v>
       </c>
       <c r="G21" t="n">
-        <v>102.1</v>
+        <v>100.2</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>116.3</v>
+        <v>111.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2001年6月</t>
+          <t>2001-09</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1026,6730 +1026,6730 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>99</v>
+        <v>100.9</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3</v>
+        <v>100.7</v>
       </c>
       <c r="F22" t="n">
-        <v>109.3</v>
+        <v>110</v>
       </c>
       <c r="G22" t="n">
-        <v>101.2</v>
+        <v>100.3</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>115.8</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2001年7月</t>
+          <t>2001-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>96.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>99.59999999999999</v>
+        <v>101.2</v>
       </c>
       <c r="E23" t="n">
-        <v>101.8</v>
+        <v>101.1</v>
       </c>
       <c r="F23" t="n">
-        <v>113.4</v>
+        <v>112</v>
       </c>
       <c r="G23" t="n">
-        <v>101.8</v>
+        <v>100.9</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>122.8</v>
+        <v>106.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2001年8月</t>
+          <t>2001-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>95.5</v>
+        <v>96.8</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>99.90000000000001</v>
+        <v>101.3</v>
       </c>
       <c r="E24" t="n">
-        <v>100.8</v>
+        <v>100.3</v>
       </c>
       <c r="F24" t="n">
-        <v>104.6</v>
+        <v>108.6</v>
       </c>
       <c r="G24" t="n">
-        <v>100.2</v>
+        <v>99.2</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>111.1</v>
+        <v>93.59999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2001年9月</t>
+          <t>2001-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>100.9</v>
+        <v>100.3</v>
       </c>
       <c r="E25" t="n">
-        <v>100.7</v>
+        <v>100.5</v>
       </c>
       <c r="F25" t="n">
-        <v>110</v>
+        <v>107.7</v>
       </c>
       <c r="G25" t="n">
-        <v>100.3</v>
+        <v>99.3</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>108</v>
+        <v>95.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2002年10月</t>
+          <t>2002-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>97.3</v>
+        <v>92.3</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>97.2</v>
+        <v>99.5</v>
       </c>
       <c r="E26" t="n">
-        <v>98.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>96</v>
+        <v>108.1</v>
       </c>
       <c r="G26" t="n">
-        <v>99.40000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>104.7</v>
+        <v>94.7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2002年11月</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>98.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>97.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>98.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="F27" t="n">
-        <v>97</v>
+        <v>113.1</v>
       </c>
       <c r="G27" t="n">
-        <v>99.90000000000001</v>
+        <v>100.8</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>106.5</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2002年12月</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>98.7</v>
+        <v>98.5</v>
       </c>
       <c r="E28" t="n">
-        <v>99</v>
+        <v>100.2</v>
       </c>
       <c r="F28" t="n">
-        <v>97.2</v>
+        <v>109.5</v>
       </c>
       <c r="G28" t="n">
-        <v>100.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>107.9</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2002年1月</t>
+          <t>2002-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>92.3</v>
+        <v>95.2</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>99.5</v>
+        <v>98.5</v>
       </c>
       <c r="E29" t="n">
-        <v>98.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="F29" t="n">
-        <v>108.1</v>
+        <v>104.6</v>
       </c>
       <c r="G29" t="n">
-        <v>98.09999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>94.7</v>
+        <v>83.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2002年2月</t>
+          <t>2002-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>99.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>99.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="E30" t="n">
-        <v>101</v>
+        <v>99.3</v>
       </c>
       <c r="F30" t="n">
-        <v>113.1</v>
+        <v>104.8</v>
       </c>
       <c r="G30" t="n">
-        <v>100.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>98.90000000000001</v>
+        <v>91.90000000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2002年3月</t>
+          <t>2002-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.09999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>98.5</v>
+        <v>98.2</v>
       </c>
       <c r="E31" t="n">
-        <v>100.2</v>
+        <v>99.5</v>
       </c>
       <c r="F31" t="n">
-        <v>109.5</v>
+        <v>105.3</v>
       </c>
       <c r="G31" t="n">
-        <v>99.40000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>88.8</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2002年4月</t>
+          <t>2002-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>95.2</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>98.5</v>
+        <v>98</v>
       </c>
       <c r="E32" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F32" t="n">
         <v>99.2</v>
       </c>
-      <c r="F32" t="n">
-        <v>104.6</v>
-      </c>
       <c r="G32" t="n">
-        <v>97.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>83.8</v>
+        <v>96.7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2002年5月</t>
+          <t>2002-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>96.7</v>
+        <v>98.2</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>98.8</v>
+        <v>97.7</v>
       </c>
       <c r="E33" t="n">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="F33" t="n">
-        <v>104.8</v>
+        <v>100.6</v>
       </c>
       <c r="G33" t="n">
-        <v>98.40000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>91.90000000000001</v>
+        <v>103.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2002年6月</t>
+          <t>2002-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>98.2</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>99.5</v>
+        <v>99.3</v>
       </c>
       <c r="F34" t="n">
-        <v>105.3</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="H34" t="inlineStr"/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="H34" t="n">
+        <v>100.3</v>
+      </c>
       <c r="I34" t="n">
-        <v>100.3</v>
+        <v>102.9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2002年7月</t>
+          <t>2002-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>96.90000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>98</v>
+        <v>97.2</v>
       </c>
       <c r="E35" t="n">
-        <v>99.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="F35" t="n">
-        <v>99.2</v>
+        <v>96</v>
       </c>
       <c r="G35" t="n">
         <v>99.40000000000001</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>96.7</v>
+        <v>104.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2002年8月</t>
+          <t>2002-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="E36" t="n">
-        <v>99.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>100.6</v>
+        <v>97</v>
       </c>
       <c r="G36" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>103.1</v>
+        <v>106.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2002年9月</t>
+          <t>2002-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>97.40000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="E37" t="n">
-        <v>99.3</v>
+        <v>99</v>
       </c>
       <c r="F37" t="n">
-        <v>97.40000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="G37" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>100.3</v>
-      </c>
+        <v>100.5</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>102.9</v>
+        <v>107.9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2003年10月</t>
+          <t>2003-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102</v>
+        <v>100.4</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>103</v>
+        <v>99.66</v>
       </c>
       <c r="E38" t="n">
-        <v>107.7</v>
+        <v>99.45999999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>105.3</v>
+        <v>95.51000000000001</v>
       </c>
       <c r="G38" t="n">
-        <v>104.9</v>
+        <v>102.7</v>
       </c>
       <c r="H38" t="n">
-        <v>104.8</v>
+        <v>104.5</v>
       </c>
       <c r="I38" t="n">
-        <v>116.5</v>
+        <v>124.81</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2003年11月</t>
+          <t>2003-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>101.8207</v>
+        <v>97.7714</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>110.5591</v>
+        <v>99.5247</v>
       </c>
       <c r="E39" t="n">
-        <v>112.0056</v>
+        <v>97.76560000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>115.1484</v>
+        <v>91.6074</v>
       </c>
       <c r="G39" t="n">
-        <v>107.6264</v>
+        <v>102.2478</v>
       </c>
       <c r="H39" t="n">
-        <v>100.3</v>
+        <v>96</v>
       </c>
       <c r="I39" t="n">
-        <v>119.2207</v>
+        <v>131.4047</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2003年12月</t>
+          <t>2003-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>102.0882</v>
+        <v>98.5</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>112.8043</v>
+        <v>99.8</v>
       </c>
       <c r="E40" t="n">
-        <v>111.8054</v>
+        <v>98.2</v>
       </c>
       <c r="F40" t="n">
-        <v>115.3833</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>108.082</v>
+        <v>103.9</v>
       </c>
       <c r="H40" t="n">
-        <v>100.8</v>
+        <v>92.3</v>
       </c>
       <c r="I40" t="n">
-        <v>120.2699</v>
+        <v>151.6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2003年1月</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>100.4</v>
+        <v>100.6175</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>99.66</v>
+        <v>99.85169999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>99.45999999999999</v>
+        <v>99.0748</v>
       </c>
       <c r="F41" t="n">
-        <v>95.51000000000001</v>
+        <v>93.99939999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>102.7</v>
+        <v>103.6594</v>
       </c>
       <c r="H41" t="n">
-        <v>104.5</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="I41" t="n">
-        <v>124.81</v>
+        <v>144.405</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2003年2月</t>
+          <t>2003-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>97.7714</v>
+        <v>98.8402</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>99.5247</v>
+        <v>100.5272</v>
       </c>
       <c r="E42" t="n">
-        <v>97.76560000000001</v>
+        <v>99.0919</v>
       </c>
       <c r="F42" t="n">
-        <v>91.6074</v>
+        <v>92.7492</v>
       </c>
       <c r="G42" t="n">
-        <v>102.2478</v>
+        <v>102.0079</v>
       </c>
       <c r="H42" t="n">
-        <v>96</v>
+        <v>105.5</v>
       </c>
       <c r="I42" t="n">
-        <v>131.4047</v>
+        <v>119.1741</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2003年3月</t>
+          <t>2003-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98.5</v>
+        <v>100</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="E43" t="n">
         <v>99.8</v>
       </c>
-      <c r="E43" t="n">
-        <v>98.2</v>
-      </c>
       <c r="F43" t="n">
-        <v>92.59999999999999</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="G43" t="n">
-        <v>103.9</v>
+        <v>100</v>
       </c>
       <c r="H43" t="n">
-        <v>92.3</v>
+        <v>104.3</v>
       </c>
       <c r="I43" t="n">
-        <v>151.6</v>
+        <v>97.09999999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2003年4月</t>
+          <t>2003-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>100.6175</v>
+        <v>100.326</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>99.85169999999999</v>
+        <v>100.449</v>
       </c>
       <c r="E44" t="n">
-        <v>99.0748</v>
+        <v>101.5692</v>
       </c>
       <c r="F44" t="n">
-        <v>93.99939999999999</v>
+        <v>92.1884</v>
       </c>
       <c r="G44" t="n">
-        <v>103.6594</v>
+        <v>100.8326</v>
       </c>
       <c r="H44" t="n">
-        <v>93.59999999999999</v>
+        <v>104.8</v>
       </c>
       <c r="I44" t="n">
-        <v>144.405</v>
+        <v>100.4967</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2003年5月</t>
+          <t>2003-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>98.8402</v>
+        <v>101.3</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>100.5272</v>
+        <v>100.5</v>
       </c>
       <c r="E45" t="n">
-        <v>99.0919</v>
+        <v>102.7</v>
       </c>
       <c r="F45" t="n">
-        <v>92.7492</v>
+        <v>95.7</v>
       </c>
       <c r="G45" t="n">
-        <v>102.0079</v>
+        <v>102.1</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5</v>
+        <v>113.7</v>
       </c>
       <c r="I45" t="n">
-        <v>119.1741</v>
+        <v>105.6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2003年6月</t>
+          <t>2003-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>100</v>
+        <v>102.5057</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>100.6</v>
+        <v>100.6657</v>
       </c>
       <c r="E46" t="n">
-        <v>99.8</v>
+        <v>104.4665</v>
       </c>
       <c r="F46" t="n">
-        <v>89.59999999999999</v>
+        <v>101.1044</v>
       </c>
       <c r="G46" t="n">
-        <v>100</v>
+        <v>103.1019</v>
       </c>
       <c r="H46" t="n">
-        <v>104.3</v>
+        <v>106.7</v>
       </c>
       <c r="I46" t="n">
-        <v>97.09999999999999</v>
+        <v>112.9007</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2003年7月</t>
+          <t>2003-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>100.326</v>
+        <v>102</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>100.449</v>
+        <v>103</v>
       </c>
       <c r="E47" t="n">
-        <v>101.5692</v>
+        <v>107.7</v>
       </c>
       <c r="F47" t="n">
-        <v>92.1884</v>
+        <v>105.3</v>
       </c>
       <c r="G47" t="n">
-        <v>100.8326</v>
+        <v>104.9</v>
       </c>
       <c r="H47" t="n">
         <v>104.8</v>
       </c>
       <c r="I47" t="n">
-        <v>100.4967</v>
+        <v>116.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2003年8月</t>
+          <t>2003-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>101.3</v>
+        <v>101.8207</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>100.5</v>
+        <v>110.5591</v>
       </c>
       <c r="E48" t="n">
-        <v>102.7</v>
+        <v>112.0056</v>
       </c>
       <c r="F48" t="n">
-        <v>95.7</v>
+        <v>115.1484</v>
       </c>
       <c r="G48" t="n">
-        <v>102.1</v>
+        <v>107.6264</v>
       </c>
       <c r="H48" t="n">
-        <v>113.7</v>
+        <v>100.3</v>
       </c>
       <c r="I48" t="n">
-        <v>105.6</v>
+        <v>119.2207</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2003年9月</t>
+          <t>2003-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>102.5057</v>
+        <v>102.0882</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>100.6657</v>
+        <v>112.8043</v>
       </c>
       <c r="E49" t="n">
-        <v>104.4665</v>
+        <v>111.8054</v>
       </c>
       <c r="F49" t="n">
-        <v>101.1044</v>
+        <v>115.3833</v>
       </c>
       <c r="G49" t="n">
-        <v>103.1019</v>
+        <v>108.082</v>
       </c>
       <c r="H49" t="n">
-        <v>106.7</v>
+        <v>100.8</v>
       </c>
       <c r="I49" t="n">
-        <v>112.9007</v>
+        <v>120.2699</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2004年10月</t>
+          <t>2004-01</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>111.9159</v>
+        <v>105.5298</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>128.009</v>
+        <v>113.944</v>
       </c>
       <c r="E50" t="n">
-        <v>119.1643</v>
+        <v>114.4719</v>
       </c>
       <c r="F50" t="n">
-        <v>118.9051</v>
+        <v>116.0857</v>
       </c>
       <c r="G50" t="n">
-        <v>109.1941</v>
+        <v>107.1453</v>
       </c>
       <c r="H50" t="n">
-        <v>99.90000000000001</v>
+        <v>104</v>
       </c>
       <c r="I50" t="n">
-        <v>90.14019999999999</v>
+        <v>100.0145</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2004年11月</t>
+          <t>2004-02</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>111.1378</v>
+        <v>103.3419</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>118.7043</v>
+        <v>116.7019</v>
       </c>
       <c r="E51" t="n">
-        <v>112.7588</v>
+        <v>110.9942</v>
       </c>
       <c r="F51" t="n">
-        <v>108.1717</v>
+        <v>114.3055</v>
       </c>
       <c r="G51" t="n">
-        <v>105.5133</v>
+        <v>104.5152</v>
       </c>
       <c r="H51" t="n">
-        <v>101.9</v>
+        <v>100.8</v>
       </c>
       <c r="I51" t="n">
-        <v>85.9575</v>
+        <v>88.65779999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2004年12月</t>
+          <t>2004-03</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>110.9904</v>
+        <v>109.1317</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>115.463</v>
+        <v>129.0818</v>
       </c>
       <c r="E52" t="n">
-        <v>111.5091</v>
+        <v>114.7679</v>
       </c>
       <c r="F52" t="n">
-        <v>110.9548</v>
+        <v>118.3006</v>
       </c>
       <c r="G52" t="n">
-        <v>104.51</v>
+        <v>106.6663</v>
       </c>
       <c r="H52" t="n">
-        <v>100.4</v>
+        <v>103.9</v>
       </c>
       <c r="I52" t="n">
-        <v>84.8811</v>
+        <v>84.33620000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2004年1月</t>
+          <t>2004-04</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>105.5298</v>
+        <v>112.732</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>113.944</v>
+        <v>133.1165</v>
       </c>
       <c r="E53" t="n">
-        <v>114.4719</v>
+        <v>118.4697</v>
       </c>
       <c r="F53" t="n">
-        <v>116.0857</v>
+        <v>122.1629</v>
       </c>
       <c r="G53" t="n">
-        <v>107.1453</v>
+        <v>109.0234</v>
       </c>
       <c r="H53" t="n">
-        <v>104</v>
+        <v>108.8</v>
       </c>
       <c r="I53" t="n">
-        <v>100.0145</v>
+        <v>84.99379999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2004年2月</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>103.3419</v>
+        <v>117.0302</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>116.7019</v>
+        <v>131.7825</v>
       </c>
       <c r="E54" t="n">
-        <v>110.9942</v>
+        <v>120.2205</v>
       </c>
       <c r="F54" t="n">
-        <v>114.3055</v>
+        <v>120.6052</v>
       </c>
       <c r="G54" t="n">
-        <v>104.5152</v>
+        <v>111.0229</v>
       </c>
       <c r="H54" t="n">
-        <v>100.8</v>
+        <v>106.9</v>
       </c>
       <c r="I54" t="n">
-        <v>88.65779999999999</v>
+        <v>93.5154</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2004年3月</t>
+          <t>2004-06</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>109.1317</v>
+        <v>117.8935</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>129.0818</v>
+        <v>131.2161</v>
       </c>
       <c r="E55" t="n">
-        <v>114.7679</v>
+        <v>122.9397</v>
       </c>
       <c r="F55" t="n">
-        <v>118.3006</v>
+        <v>131.7314</v>
       </c>
       <c r="G55" t="n">
-        <v>106.6663</v>
+        <v>113.491</v>
       </c>
       <c r="H55" t="n">
-        <v>103.9</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I55" t="n">
-        <v>84.33620000000001</v>
+        <v>109.4385</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2004年4月</t>
+          <t>2004-07</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>112.732</v>
+        <v>116.5489</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>133.1165</v>
+        <v>130.8023</v>
       </c>
       <c r="E56" t="n">
-        <v>118.4697</v>
+        <v>123.4961</v>
       </c>
       <c r="F56" t="n">
-        <v>122.1629</v>
+        <v>132.4227</v>
       </c>
       <c r="G56" t="n">
-        <v>109.0234</v>
+        <v>114.009</v>
       </c>
       <c r="H56" t="n">
-        <v>108.8</v>
+        <v>101.9</v>
       </c>
       <c r="I56" t="n">
-        <v>84.99379999999999</v>
+        <v>111.6331</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2004年5月</t>
+          <t>2004-08</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>117.0302</v>
+        <v>114.7382</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>131.7825</v>
+        <v>130.8429</v>
       </c>
       <c r="E57" t="n">
-        <v>120.2205</v>
+        <v>124.0089</v>
       </c>
       <c r="F57" t="n">
-        <v>120.6052</v>
+        <v>128.9698</v>
       </c>
       <c r="G57" t="n">
-        <v>111.0229</v>
+        <v>113.0671</v>
       </c>
       <c r="H57" t="n">
-        <v>106.9</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="I57" t="n">
-        <v>93.5154</v>
+        <v>104.0702</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2004年6月</t>
+          <t>2004-09</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>117.8935</v>
+        <v>112.2502</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>131.2161</v>
+        <v>130.8542</v>
       </c>
       <c r="E58" t="n">
-        <v>122.9397</v>
+        <v>123.069</v>
       </c>
       <c r="F58" t="n">
-        <v>131.7314</v>
+        <v>126.8452</v>
       </c>
       <c r="G58" t="n">
-        <v>113.491</v>
+        <v>111.9953</v>
       </c>
       <c r="H58" t="n">
-        <v>99.59999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="I58" t="n">
-        <v>109.4385</v>
+        <v>99.6872</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2004年7月</t>
+          <t>2004-10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>116.5489</v>
+        <v>111.9159</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>130.8023</v>
+        <v>128.009</v>
       </c>
       <c r="E59" t="n">
-        <v>123.4961</v>
+        <v>119.1643</v>
       </c>
       <c r="F59" t="n">
-        <v>132.4227</v>
+        <v>118.9051</v>
       </c>
       <c r="G59" t="n">
-        <v>114.009</v>
+        <v>109.1941</v>
       </c>
       <c r="H59" t="n">
-        <v>101.9</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I59" t="n">
-        <v>111.6331</v>
+        <v>90.14019999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2004年8月</t>
+          <t>2004-11</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>114.7382</v>
+        <v>111.1378</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>130.8429</v>
+        <v>118.7043</v>
       </c>
       <c r="E60" t="n">
-        <v>124.0089</v>
+        <v>112.7588</v>
       </c>
       <c r="F60" t="n">
-        <v>128.9698</v>
+        <v>108.1717</v>
       </c>
       <c r="G60" t="n">
-        <v>113.0671</v>
+        <v>105.5133</v>
       </c>
       <c r="H60" t="n">
-        <v>98.90000000000001</v>
+        <v>101.9</v>
       </c>
       <c r="I60" t="n">
-        <v>104.0702</v>
+        <v>85.9575</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2004年9月</t>
+          <t>2004-12</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>112.2502</v>
+        <v>110.9904</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>130.8542</v>
+        <v>115.463</v>
       </c>
       <c r="E61" t="n">
-        <v>123.069</v>
+        <v>111.5091</v>
       </c>
       <c r="F61" t="n">
-        <v>126.8452</v>
+        <v>110.9548</v>
       </c>
       <c r="G61" t="n">
-        <v>111.9953</v>
+        <v>104.51</v>
       </c>
       <c r="H61" t="n">
-        <v>97.40000000000001</v>
+        <v>100.4</v>
       </c>
       <c r="I61" t="n">
-        <v>99.6872</v>
+        <v>84.8811</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2005年10月</t>
+          <t>2005-01</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>104.6766</v>
+        <v>108.0685</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
-        <v>99.2629</v>
+        <v>114.1204</v>
       </c>
       <c r="E62" t="n">
-        <v>94.937</v>
+        <v>109.1797</v>
       </c>
       <c r="F62" t="n">
-        <v>98.3002</v>
+        <v>110.6157</v>
       </c>
       <c r="G62" t="n">
-        <v>101.7954</v>
+        <v>103.6957</v>
       </c>
       <c r="H62" t="n">
-        <v>112.1153</v>
+        <v>92.8</v>
       </c>
       <c r="I62" t="n">
-        <v>117.8411</v>
+        <v>90.4824</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2005年11月</t>
+          <t>2005-02</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>104.5394</v>
+        <v>115.752</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
-        <v>99.93089999999999</v>
+        <v>111.8177</v>
       </c>
       <c r="E63" t="n">
-        <v>93.682</v>
+        <v>114.3634</v>
       </c>
       <c r="F63" t="n">
-        <v>97.3493</v>
+        <v>115.7154</v>
       </c>
       <c r="G63" t="n">
-        <v>102.133</v>
+        <v>108.8377</v>
       </c>
       <c r="H63" t="n">
-        <v>114.7564</v>
+        <v>97.2</v>
       </c>
       <c r="I63" t="n">
-        <v>121.8365</v>
+        <v>114.6932</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2005年12月</t>
+          <t>2005-03</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>105.8474</v>
+        <v>111.5277</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
-        <v>100.8149</v>
+        <v>101.3422</v>
       </c>
       <c r="E64" t="n">
-        <v>93.645</v>
+        <v>111.6525</v>
       </c>
       <c r="F64" t="n">
-        <v>92.90770000000001</v>
+        <v>110.1666</v>
       </c>
       <c r="G64" t="n">
-        <v>102.7831</v>
+        <v>105.5231</v>
       </c>
       <c r="H64" t="n">
-        <v>114.7172</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="I64" t="n">
-        <v>125.4531</v>
+        <v>109.288</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2005年1月</t>
+          <t>2005-04</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>108.0685</v>
+        <v>107.1032</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>114.1204</v>
+        <v>98.32470000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>109.1797</v>
+        <v>108.2644</v>
       </c>
       <c r="F65" t="n">
-        <v>110.6157</v>
+        <v>106.2151</v>
       </c>
       <c r="G65" t="n">
-        <v>103.6957</v>
+        <v>103.1479</v>
       </c>
       <c r="H65" t="n">
-        <v>92.8</v>
+        <v>89.5</v>
       </c>
       <c r="I65" t="n">
-        <v>90.4824</v>
+        <v>107.0211</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2005年2月</t>
+          <t>2005-05</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>115.752</v>
+        <v>103.0037</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>111.8177</v>
+        <v>98.39400000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>114.3634</v>
+        <v>106.4439</v>
       </c>
       <c r="F66" t="n">
-        <v>115.7154</v>
+        <v>111.9339</v>
       </c>
       <c r="G66" t="n">
-        <v>108.8377</v>
+        <v>102.8229</v>
       </c>
       <c r="H66" t="n">
-        <v>97.2</v>
+        <v>90.7</v>
       </c>
       <c r="I66" t="n">
-        <v>114.6932</v>
+        <v>110.3582</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2005年3月</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>111.5277</v>
+        <v>102.0987</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>101.3422</v>
+        <v>98.97709999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>111.6525</v>
+        <v>103.2268</v>
       </c>
       <c r="F67" t="n">
-        <v>110.1666</v>
+        <v>107.5226</v>
       </c>
       <c r="G67" t="n">
-        <v>105.5231</v>
+        <v>102.0967</v>
       </c>
       <c r="H67" t="n">
-        <v>93.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="I67" t="n">
-        <v>109.288</v>
+        <v>109.0756</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2005年4月</t>
+          <t>2005-07</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>107.1032</v>
+        <v>102.8089</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="n">
-        <v>98.32470000000001</v>
+        <v>99.28570000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>108.2644</v>
+        <v>100.308</v>
       </c>
       <c r="F68" t="n">
-        <v>106.2151</v>
+        <v>104.8499</v>
       </c>
       <c r="G68" t="n">
-        <v>103.1479</v>
+        <v>102.5996</v>
       </c>
       <c r="H68" t="n">
-        <v>89.5</v>
+        <v>112.2</v>
       </c>
       <c r="I68" t="n">
-        <v>107.0211</v>
+        <v>115.8224</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2005年5月</t>
+          <t>2005-08</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>103.0037</v>
+        <v>104.1342</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
-        <v>98.39400000000001</v>
+        <v>99.2988</v>
       </c>
       <c r="E69" t="n">
-        <v>106.4439</v>
+        <v>97.5264</v>
       </c>
       <c r="F69" t="n">
-        <v>111.9339</v>
+        <v>101.4885</v>
       </c>
       <c r="G69" t="n">
-        <v>102.8229</v>
+        <v>101.3362</v>
       </c>
       <c r="H69" t="n">
-        <v>90.7</v>
+        <v>109.942</v>
       </c>
       <c r="I69" t="n">
-        <v>110.3582</v>
+        <v>109.3989</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2005年6月</t>
+          <t>2005-09</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>102.0987</v>
+        <v>104.8855</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
-        <v>98.97709999999999</v>
+        <v>99.1678</v>
       </c>
       <c r="E70" t="n">
-        <v>103.2268</v>
+        <v>95.95959999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>107.5226</v>
+        <v>97.7621</v>
       </c>
       <c r="G70" t="n">
-        <v>102.0967</v>
+        <v>100.8345</v>
       </c>
       <c r="H70" t="n">
-        <v>98.8</v>
+        <v>112.2974</v>
       </c>
       <c r="I70" t="n">
-        <v>109.0756</v>
+        <v>106.5513</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2005年7月</t>
+          <t>2005-10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>102.8089</v>
+        <v>104.6766</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
-        <v>99.28570000000001</v>
+        <v>99.2629</v>
       </c>
       <c r="E71" t="n">
-        <v>100.308</v>
+        <v>94.937</v>
       </c>
       <c r="F71" t="n">
-        <v>104.8499</v>
+        <v>98.3002</v>
       </c>
       <c r="G71" t="n">
-        <v>102.5996</v>
+        <v>101.7954</v>
       </c>
       <c r="H71" t="n">
-        <v>112.2</v>
+        <v>112.1153</v>
       </c>
       <c r="I71" t="n">
-        <v>115.8224</v>
+        <v>117.8411</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2005年8月</t>
+          <t>2005-11</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>104.1342</v>
+        <v>104.5394</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
-        <v>99.2988</v>
+        <v>99.93089999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>97.5264</v>
+        <v>93.682</v>
       </c>
       <c r="F72" t="n">
-        <v>101.4885</v>
+        <v>97.3493</v>
       </c>
       <c r="G72" t="n">
-        <v>101.3362</v>
+        <v>102.133</v>
       </c>
       <c r="H72" t="n">
-        <v>109.942</v>
+        <v>114.7564</v>
       </c>
       <c r="I72" t="n">
-        <v>109.3989</v>
+        <v>121.8365</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2005年9月</t>
+          <t>2005-12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>104.8855</v>
+        <v>105.8474</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
-        <v>99.1678</v>
+        <v>100.8149</v>
       </c>
       <c r="E73" t="n">
-        <v>95.95959999999999</v>
+        <v>93.645</v>
       </c>
       <c r="F73" t="n">
-        <v>97.7621</v>
+        <v>92.90770000000001</v>
       </c>
       <c r="G73" t="n">
-        <v>100.8345</v>
+        <v>102.7831</v>
       </c>
       <c r="H73" t="n">
-        <v>112.2974</v>
+        <v>114.7172</v>
       </c>
       <c r="I73" t="n">
-        <v>106.5513</v>
+        <v>125.4531</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2006年10月</t>
+          <t>2006-01</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>102.91049394</v>
+        <v>104.58162886</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="n">
-        <v>103.69650994</v>
+        <v>101.0310467</v>
       </c>
       <c r="E74" t="n">
-        <v>102.54498634</v>
+        <v>95.54875205</v>
       </c>
       <c r="F74" t="n">
-        <v>105.76800046</v>
+        <v>91.81568385</v>
       </c>
       <c r="G74" t="n">
-        <v>102.21382174</v>
+        <v>104.13725589</v>
       </c>
       <c r="H74" t="n">
-        <v>106.77305046</v>
+        <v>121.03030173</v>
       </c>
       <c r="I74" t="n">
-        <v>95.01082423</v>
+        <v>134.47928152</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2006年11月</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>103.06865745</v>
+        <v>98.51611108</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
-        <v>104.54495341</v>
+        <v>101.0274364</v>
       </c>
       <c r="E75" t="n">
-        <v>107.20216301</v>
+        <v>93.58294865000001</v>
       </c>
       <c r="F75" t="n">
-        <v>110.9201187</v>
+        <v>86.88186616</v>
       </c>
       <c r="G75" t="n">
-        <v>103.34922655</v>
+        <v>101.44889828</v>
       </c>
       <c r="H75" t="n">
-        <v>101.30521106</v>
+        <v>121.08629969</v>
       </c>
       <c r="I75" t="n">
-        <v>96.11316892000001</v>
+        <v>113.8885088</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-03</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>102.44063331</v>
+        <v>97.56901539</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="n">
-        <v>106.60235579</v>
+        <v>100.94933284</v>
       </c>
       <c r="E76" t="n">
-        <v>113.03522486</v>
+        <v>92.29767922000001</v>
       </c>
       <c r="F76" t="n">
-        <v>119.21679009</v>
+        <v>90.01706221000001</v>
       </c>
       <c r="G76" t="n">
-        <v>105.79651073</v>
+        <v>101.12036664</v>
       </c>
       <c r="H76" t="n">
-        <v>99.00401447</v>
+        <v>126.50350919</v>
       </c>
       <c r="I76" t="n">
-        <v>101.37419182</v>
+        <v>109.9226985</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2006年1月</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>104.58162886</v>
+        <v>99.21836777999999</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="n">
-        <v>101.0310467</v>
+        <v>101.22521686</v>
       </c>
       <c r="E77" t="n">
-        <v>95.54875205</v>
+        <v>91.41880162</v>
       </c>
       <c r="F77" t="n">
-        <v>91.81568385</v>
+        <v>90.76567245</v>
       </c>
       <c r="G77" t="n">
-        <v>104.13725589</v>
+        <v>102.10665409</v>
       </c>
       <c r="H77" t="n">
-        <v>121.03030173</v>
+        <v>133.26775273</v>
       </c>
       <c r="I77" t="n">
-        <v>134.47928152</v>
+        <v>114.96138593</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2006年2月</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>98.51611108</v>
+        <v>101.34445347</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="n">
-        <v>101.0274364</v>
+        <v>101.62748373</v>
       </c>
       <c r="E78" t="n">
-        <v>93.58294865000001</v>
+        <v>90.90276394</v>
       </c>
       <c r="F78" t="n">
-        <v>86.88186616</v>
+        <v>86.81506987</v>
       </c>
       <c r="G78" t="n">
-        <v>101.44889828</v>
+        <v>102.28682521</v>
       </c>
       <c r="H78" t="n">
-        <v>121.08629969</v>
+        <v>137.31659948</v>
       </c>
       <c r="I78" t="n">
-        <v>113.8885088</v>
+        <v>114.79400586</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2006年3月</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>97.56901539</v>
+        <v>101.9362969</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="n">
-        <v>100.94933284</v>
+        <v>101.95545864</v>
       </c>
       <c r="E79" t="n">
-        <v>92.29767922000001</v>
+        <v>91.15408247000001</v>
       </c>
       <c r="F79" t="n">
-        <v>90.01706221000001</v>
+        <v>85.49179383000001</v>
       </c>
       <c r="G79" t="n">
-        <v>101.12036664</v>
+        <v>102.56543672</v>
       </c>
       <c r="H79" t="n">
-        <v>126.50350919</v>
+        <v>147.38614852</v>
       </c>
       <c r="I79" t="n">
-        <v>109.9226985</v>
+        <v>114.03988318</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2006年4月</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>99.21836777999999</v>
+        <v>103.06272211</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="n">
-        <v>101.22521686</v>
+        <v>102.72972384</v>
       </c>
       <c r="E80" t="n">
-        <v>91.41880162</v>
+        <v>93.16783045</v>
       </c>
       <c r="F80" t="n">
-        <v>90.76567245</v>
+        <v>88.0429723</v>
       </c>
       <c r="G80" t="n">
-        <v>102.10665409</v>
+        <v>100.73219213</v>
       </c>
       <c r="H80" t="n">
-        <v>133.26775273</v>
+        <v>128.47647829</v>
       </c>
       <c r="I80" t="n">
-        <v>114.96138593</v>
+        <v>96.22903965</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2006年5月</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>101.34445347</v>
+        <v>102.72127739</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="n">
-        <v>101.62748373</v>
+        <v>103.08316354</v>
       </c>
       <c r="E81" t="n">
-        <v>90.90276394</v>
+        <v>96.94456001</v>
       </c>
       <c r="F81" t="n">
-        <v>86.81506987</v>
+        <v>96.43075277</v>
       </c>
       <c r="G81" t="n">
-        <v>102.28682521</v>
+        <v>101.44825078</v>
       </c>
       <c r="H81" t="n">
-        <v>137.31659948</v>
+        <v>116.09523246</v>
       </c>
       <c r="I81" t="n">
-        <v>114.79400586</v>
+        <v>99.70820194</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2006年6月</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>101.9362969</v>
+        <v>101.10405062</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="n">
-        <v>101.95545864</v>
+        <v>103.4052044</v>
       </c>
       <c r="E82" t="n">
-        <v>91.15408247000001</v>
+        <v>99.45235459</v>
       </c>
       <c r="F82" t="n">
-        <v>85.49179383000001</v>
+        <v>101.29987831</v>
       </c>
       <c r="G82" t="n">
-        <v>102.56543672</v>
+        <v>102.48246673</v>
       </c>
       <c r="H82" t="n">
-        <v>147.38614852</v>
+        <v>108.16428637</v>
       </c>
       <c r="I82" t="n">
-        <v>114.03988318</v>
+        <v>107.8460988</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2006年7月</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>103.06272211</v>
+        <v>102.91049394</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="n">
-        <v>102.72972384</v>
+        <v>103.69650994</v>
       </c>
       <c r="E83" t="n">
-        <v>93.16783045</v>
+        <v>102.54498634</v>
       </c>
       <c r="F83" t="n">
-        <v>88.0429723</v>
+        <v>105.76800046</v>
       </c>
       <c r="G83" t="n">
-        <v>100.73219213</v>
+        <v>102.21382174</v>
       </c>
       <c r="H83" t="n">
-        <v>128.47647829</v>
+        <v>106.77305046</v>
       </c>
       <c r="I83" t="n">
-        <v>96.22903965</v>
+        <v>95.01082423</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2006年8月</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>102.72127739</v>
+        <v>103.06865745</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="n">
-        <v>103.08316354</v>
+        <v>104.54495341</v>
       </c>
       <c r="E84" t="n">
-        <v>96.94456001</v>
+        <v>107.20216301</v>
       </c>
       <c r="F84" t="n">
-        <v>96.43075277</v>
+        <v>110.9201187</v>
       </c>
       <c r="G84" t="n">
-        <v>101.44825078</v>
+        <v>103.34922655</v>
       </c>
       <c r="H84" t="n">
-        <v>116.09523246</v>
+        <v>101.30521106</v>
       </c>
       <c r="I84" t="n">
-        <v>99.70820194</v>
+        <v>96.11316892000001</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2006年9月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>101.10405062</v>
+        <v>102.44063331</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="n">
-        <v>103.4052044</v>
+        <v>106.60235579</v>
       </c>
       <c r="E85" t="n">
-        <v>99.45235459</v>
+        <v>113.03522486</v>
       </c>
       <c r="F85" t="n">
-        <v>101.29987831</v>
+        <v>119.21679009</v>
       </c>
       <c r="G85" t="n">
-        <v>102.48246673</v>
+        <v>105.79651073</v>
       </c>
       <c r="H85" t="n">
-        <v>108.16428637</v>
+        <v>99.00401447</v>
       </c>
       <c r="I85" t="n">
-        <v>107.8460988</v>
+        <v>101.37419182</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-01</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>106.2</v>
+        <v>99.64565191</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="n">
-        <v>106.8</v>
+        <v>106.76379678</v>
       </c>
       <c r="E86" t="n">
-        <v>138.4</v>
+        <v>113.28997415</v>
       </c>
       <c r="F86" t="n">
-        <v>114.5</v>
+        <v>120.27405377</v>
       </c>
       <c r="G86" t="n">
-        <v>117</v>
+        <v>104.47440717</v>
       </c>
       <c r="H86" t="n">
-        <v>107.9</v>
+        <v>103.99349239</v>
       </c>
       <c r="I86" t="n">
-        <v>128.4</v>
+        <v>87.90270495999999</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>106.02679743</v>
+        <v>103.03731293</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="n">
-        <v>106.7546551</v>
+        <v>106.65943078</v>
       </c>
       <c r="E87" t="n">
-        <v>139.13690931</v>
+        <v>115.34494082</v>
       </c>
       <c r="F87" t="n">
-        <v>110.43896222</v>
+        <v>128.20339903</v>
       </c>
       <c r="G87" t="n">
-        <v>117.73021786</v>
+        <v>105.47635614</v>
       </c>
       <c r="H87" t="n">
-        <v>112.51818407</v>
+        <v>107.41132409</v>
       </c>
       <c r="I87" t="n">
-        <v>127.08222276</v>
+        <v>88.91969709999999</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>105.45070015</v>
+        <v>105.04177258</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="n">
-        <v>105.92419912</v>
+        <v>106.42295663</v>
       </c>
       <c r="E88" t="n">
-        <v>139.09595304</v>
+        <v>116.7553073</v>
       </c>
       <c r="F88" t="n">
-        <v>104.51621769</v>
+        <v>128.04570294</v>
       </c>
       <c r="G88" t="n">
-        <v>116.29643782</v>
+        <v>107.42212241</v>
       </c>
       <c r="H88" t="n">
-        <v>114.03451738</v>
+        <v>105.89602595</v>
       </c>
       <c r="I88" t="n">
-        <v>108.2737972</v>
+        <v>102.27247482</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2007年1月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>99.64565191</v>
+        <v>103.89148145</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="n">
-        <v>106.76379678</v>
+        <v>106.18481442</v>
       </c>
       <c r="E89" t="n">
-        <v>113.28997415</v>
+        <v>117.69859212</v>
       </c>
       <c r="F89" t="n">
-        <v>120.27405377</v>
+        <v>128.42966652</v>
       </c>
       <c r="G89" t="n">
-        <v>104.47440717</v>
+        <v>106.75407829</v>
       </c>
       <c r="H89" t="n">
-        <v>103.99349239</v>
+        <v>94.54386375999999</v>
       </c>
       <c r="I89" t="n">
-        <v>87.90270495999999</v>
+        <v>103.219729</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>103.03731293</v>
+        <v>103.73441253</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="n">
-        <v>106.65943078</v>
+        <v>106.06432082</v>
       </c>
       <c r="E90" t="n">
-        <v>115.34494082</v>
+        <v>126.35325688</v>
       </c>
       <c r="F90" t="n">
-        <v>128.20339903</v>
+        <v>135.14140558</v>
       </c>
       <c r="G90" t="n">
-        <v>105.47635614</v>
+        <v>107.71744518</v>
       </c>
       <c r="H90" t="n">
-        <v>107.41132409</v>
+        <v>88.5804284</v>
       </c>
       <c r="I90" t="n">
-        <v>88.91969709999999</v>
+        <v>97.34532977000001</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>105.04177258</v>
+        <v>104.75419085</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="n">
-        <v>106.42295663</v>
+        <v>106.27817359</v>
       </c>
       <c r="E91" t="n">
-        <v>116.7553073</v>
+        <v>135.25354391</v>
       </c>
       <c r="F91" t="n">
-        <v>128.04570294</v>
+        <v>135.7132918</v>
       </c>
       <c r="G91" t="n">
-        <v>107.42212241</v>
+        <v>110.59210862</v>
       </c>
       <c r="H91" t="n">
-        <v>105.89602595</v>
+        <v>83.63282873</v>
       </c>
       <c r="I91" t="n">
-        <v>102.27247482</v>
+        <v>104.1246959</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>103.89148145</v>
+        <v>104.49623923</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="n">
-        <v>106.18481442</v>
+        <v>106.10364894</v>
       </c>
       <c r="E92" t="n">
-        <v>117.69859212</v>
+        <v>144.26991545</v>
       </c>
       <c r="F92" t="n">
-        <v>128.42966652</v>
+        <v>129.71858389</v>
       </c>
       <c r="G92" t="n">
-        <v>106.75407829</v>
+        <v>114.53813542</v>
       </c>
       <c r="H92" t="n">
-        <v>94.54386375999999</v>
+        <v>87.39278372</v>
       </c>
       <c r="I92" t="n">
-        <v>103.219729</v>
+        <v>118.27241108</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>103.73441253</v>
+        <v>105.13712668</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="n">
-        <v>106.06432082</v>
+        <v>106.42952503</v>
       </c>
       <c r="E93" t="n">
-        <v>126.35325688</v>
+        <v>148.52665608</v>
       </c>
       <c r="F93" t="n">
-        <v>135.14140558</v>
+        <v>123.69877132</v>
       </c>
       <c r="G93" t="n">
-        <v>107.71744518</v>
+        <v>117.24311028</v>
       </c>
       <c r="H93" t="n">
-        <v>88.5804284</v>
+        <v>95.72640573</v>
       </c>
       <c r="I93" t="n">
-        <v>97.34532977000001</v>
+        <v>121.53464219</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>104.75419085</v>
+        <v>106.71336992</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="n">
-        <v>106.27817359</v>
+        <v>106.58947167</v>
       </c>
       <c r="E94" t="n">
-        <v>135.25354391</v>
+        <v>142.89374523</v>
       </c>
       <c r="F94" t="n">
-        <v>135.7132918</v>
+        <v>117.5792252</v>
       </c>
       <c r="G94" t="n">
-        <v>110.59210862</v>
+        <v>116.06136475</v>
       </c>
       <c r="H94" t="n">
-        <v>83.63282873</v>
+        <v>103.92339532</v>
       </c>
       <c r="I94" t="n">
-        <v>104.1246959</v>
+        <v>110.73849446</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>104.49623923</v>
+        <v>106.2</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="n">
-        <v>106.10364894</v>
+        <v>106.8</v>
       </c>
       <c r="E95" t="n">
-        <v>144.26991545</v>
+        <v>138.4</v>
       </c>
       <c r="F95" t="n">
-        <v>129.71858389</v>
+        <v>114.5</v>
       </c>
       <c r="G95" t="n">
-        <v>114.53813542</v>
+        <v>117</v>
       </c>
       <c r="H95" t="n">
-        <v>87.39278372</v>
+        <v>107.9</v>
       </c>
       <c r="I95" t="n">
-        <v>118.27241108</v>
+        <v>128.4</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>105.13712668</v>
+        <v>106.02679743</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="n">
-        <v>106.42952503</v>
+        <v>106.7546551</v>
       </c>
       <c r="E96" t="n">
-        <v>148.52665608</v>
+        <v>139.13690931</v>
       </c>
       <c r="F96" t="n">
-        <v>123.69877132</v>
+        <v>110.43896222</v>
       </c>
       <c r="G96" t="n">
-        <v>117.24311028</v>
+        <v>117.73021786</v>
       </c>
       <c r="H96" t="n">
-        <v>95.72640573</v>
+        <v>112.51818407</v>
       </c>
       <c r="I96" t="n">
-        <v>121.53464219</v>
+        <v>127.08222276</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>106.71336992</v>
+        <v>105.45070015</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="n">
-        <v>106.58947167</v>
+        <v>105.92419912</v>
       </c>
       <c r="E97" t="n">
-        <v>142.89374523</v>
+        <v>139.09595304</v>
       </c>
       <c r="F97" t="n">
-        <v>117.5792252</v>
+        <v>104.51621769</v>
       </c>
       <c r="G97" t="n">
-        <v>116.06136475</v>
+        <v>116.29643782</v>
       </c>
       <c r="H97" t="n">
-        <v>103.92339532</v>
+        <v>114.03451738</v>
       </c>
       <c r="I97" t="n">
-        <v>110.73849446</v>
+        <v>108.2737972</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-01</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>112.52399922</v>
+        <v>108.33039487</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="n">
-        <v>107.11983309</v>
+        <v>106.23405303</v>
       </c>
       <c r="E98" t="n">
-        <v>107.75419023</v>
+        <v>141.45882059</v>
       </c>
       <c r="F98" t="n">
-        <v>104.58813305</v>
+        <v>105.47504638</v>
       </c>
       <c r="G98" t="n">
-        <v>108.99613835</v>
+        <v>117.78626616</v>
       </c>
       <c r="H98" t="n">
-        <v>105.08713735</v>
+        <v>110.1868941</v>
       </c>
       <c r="I98" t="n">
-        <v>100.6595842</v>
+        <v>112.77753691</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>111.27503215</v>
+        <v>113.18088617</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="n">
-        <v>106.15377108</v>
+        <v>106.53290549</v>
       </c>
       <c r="E99" t="n">
-        <v>103.19515757</v>
+        <v>145.49249872</v>
       </c>
       <c r="F99" t="n">
-        <v>103.41371588</v>
+        <v>106.85332296</v>
       </c>
       <c r="G99" t="n">
-        <v>106.56705348</v>
+        <v>123.00004745</v>
       </c>
       <c r="H99" t="n">
-        <v>104.62112302</v>
+        <v>107.83495713</v>
       </c>
       <c r="I99" t="n">
-        <v>97.86285537000001</v>
+        <v>145.5376121</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>110.62294992</v>
+        <v>110.88837899</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="n">
-        <v>104.70943387</v>
+        <v>107.10699517</v>
       </c>
       <c r="E100" t="n">
-        <v>99.82588446</v>
+        <v>146.00598802</v>
       </c>
       <c r="F100" t="n">
-        <v>102.23127646</v>
+        <v>104.47423457</v>
       </c>
       <c r="G100" t="n">
-        <v>104.72154734</v>
+        <v>120.94013458</v>
       </c>
       <c r="H100" t="n">
-        <v>101.93446272</v>
+        <v>103.77387439</v>
       </c>
       <c r="I100" t="n">
-        <v>105.23778179</v>
+        <v>121.78887035</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2008年1月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>108.33039487</v>
+        <v>115.28458324</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="n">
-        <v>106.23405303</v>
+        <v>107.53497965</v>
       </c>
       <c r="E101" t="n">
-        <v>141.45882059</v>
+        <v>148.30490885</v>
       </c>
       <c r="F101" t="n">
-        <v>105.47504638</v>
+        <v>104.47572935</v>
       </c>
       <c r="G101" t="n">
-        <v>117.78626616</v>
+        <v>121.6123744</v>
       </c>
       <c r="H101" t="n">
-        <v>110.1868941</v>
+        <v>112.35581211</v>
       </c>
       <c r="I101" t="n">
-        <v>112.77753691</v>
+        <v>112.92570614</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>113.18088617</v>
+        <v>117.23767744</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="n">
-        <v>106.53290549</v>
+        <v>108.62397768</v>
       </c>
       <c r="E102" t="n">
-        <v>145.49249872</v>
+        <v>138.55435512</v>
       </c>
       <c r="F102" t="n">
-        <v>106.85332296</v>
+        <v>102.76863851</v>
       </c>
       <c r="G102" t="n">
-        <v>123.00004745</v>
+        <v>119.56044296</v>
       </c>
       <c r="H102" t="n">
-        <v>107.83495713</v>
+        <v>109.83352913</v>
       </c>
       <c r="I102" t="n">
-        <v>145.5376121</v>
+        <v>109.80437649</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>110.88837899</v>
+        <v>117.35303021</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="n">
-        <v>107.10699517</v>
+        <v>108.72201875</v>
       </c>
       <c r="E103" t="n">
-        <v>146.00598802</v>
+        <v>128.42277795</v>
       </c>
       <c r="F103" t="n">
-        <v>104.47423457</v>
+        <v>102.75497331</v>
       </c>
       <c r="G103" t="n">
-        <v>120.94013458</v>
+        <v>117.30455778</v>
       </c>
       <c r="H103" t="n">
-        <v>103.77387439</v>
+        <v>114.21481803</v>
       </c>
       <c r="I103" t="n">
-        <v>121.78887035</v>
+        <v>107.81944509</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>115.28458324</v>
+        <v>117.86794731</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="n">
-        <v>107.53497965</v>
+        <v>108.54652683</v>
       </c>
       <c r="E104" t="n">
-        <v>148.30490885</v>
+        <v>117.44962945</v>
       </c>
       <c r="F104" t="n">
-        <v>104.47572935</v>
+        <v>106.18052424</v>
       </c>
       <c r="G104" t="n">
-        <v>121.6123744</v>
+        <v>114.80105735</v>
       </c>
       <c r="H104" t="n">
-        <v>112.35581211</v>
+        <v>117.40667856</v>
       </c>
       <c r="I104" t="n">
-        <v>112.92570614</v>
+        <v>108.83322466</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>117.23767744</v>
+        <v>116.22497578</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="n">
-        <v>108.62397768</v>
+        <v>108.05350607</v>
       </c>
       <c r="E105" t="n">
-        <v>138.55435512</v>
+        <v>109.2847811</v>
       </c>
       <c r="F105" t="n">
-        <v>102.76863851</v>
+        <v>102.6202065</v>
       </c>
       <c r="G105" t="n">
-        <v>119.56044296</v>
+        <v>110.74569415</v>
       </c>
       <c r="H105" t="n">
-        <v>109.83352913</v>
+        <v>113.27712158</v>
       </c>
       <c r="I105" t="n">
-        <v>109.80437649</v>
+        <v>99.43889535</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>117.35303021</v>
+        <v>114.63207542</v>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="n">
-        <v>108.72201875</v>
+        <v>107.70949332</v>
       </c>
       <c r="E106" t="n">
-        <v>128.42277795</v>
+        <v>109.49240284</v>
       </c>
       <c r="F106" t="n">
-        <v>102.75497331</v>
+        <v>105.652964</v>
       </c>
       <c r="G106" t="n">
-        <v>117.30455778</v>
+        <v>110.16363115</v>
       </c>
       <c r="H106" t="n">
-        <v>114.21481803</v>
+        <v>109.09866393</v>
       </c>
       <c r="I106" t="n">
-        <v>107.81944509</v>
+        <v>100.44902435</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>117.86794731</v>
+        <v>112.52399922</v>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="n">
-        <v>108.54652683</v>
+        <v>107.11983309</v>
       </c>
       <c r="E107" t="n">
-        <v>117.44962945</v>
+        <v>107.75419023</v>
       </c>
       <c r="F107" t="n">
-        <v>106.18052424</v>
+        <v>104.58813305</v>
       </c>
       <c r="G107" t="n">
-        <v>114.80105735</v>
+        <v>108.99613835</v>
       </c>
       <c r="H107" t="n">
-        <v>117.40667856</v>
+        <v>105.08713735</v>
       </c>
       <c r="I107" t="n">
-        <v>108.83322466</v>
+        <v>100.6595842</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>116.22497578</v>
+        <v>111.27503215</v>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="n">
-        <v>108.05350607</v>
+        <v>106.15377108</v>
       </c>
       <c r="E108" t="n">
-        <v>109.2847811</v>
+        <v>103.19515757</v>
       </c>
       <c r="F108" t="n">
-        <v>102.6202065</v>
+        <v>103.41371588</v>
       </c>
       <c r="G108" t="n">
-        <v>110.74569415</v>
+        <v>106.56705348</v>
       </c>
       <c r="H108" t="n">
-        <v>113.27712158</v>
+        <v>104.62112302</v>
       </c>
       <c r="I108" t="n">
-        <v>99.43889535</v>
+        <v>97.86285537000001</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>114.63207542</v>
+        <v>110.62294992</v>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="n">
-        <v>107.70949332</v>
+        <v>104.70943387</v>
       </c>
       <c r="E109" t="n">
-        <v>109.49240284</v>
+        <v>99.82588446</v>
       </c>
       <c r="F109" t="n">
-        <v>105.652964</v>
+        <v>102.23127646</v>
       </c>
       <c r="G109" t="n">
-        <v>110.16363115</v>
+        <v>104.72154734</v>
       </c>
       <c r="H109" t="n">
-        <v>109.09866393</v>
+        <v>101.93446272</v>
       </c>
       <c r="I109" t="n">
-        <v>100.44902435</v>
+        <v>105.23778179</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>101.72579841</v>
+        <v>111.68799815</v>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="n">
-        <v>106.1292706</v>
+        <v>104.13711879</v>
       </c>
       <c r="E110" t="n">
-        <v>95.83375617</v>
+        <v>97.75068123</v>
       </c>
       <c r="F110" t="n">
-        <v>100.67403883</v>
+        <v>101.52368494</v>
       </c>
       <c r="G110" t="n">
-        <v>101.54108645</v>
+        <v>104.73873607</v>
       </c>
       <c r="H110" t="n">
-        <v>111.84257879</v>
+        <v>99.32969989999999</v>
       </c>
       <c r="I110" t="n">
-        <v>114.40133852</v>
+        <v>119.42538718</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>103.72015852</v>
+        <v>103.35179504</v>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="n">
-        <v>107.00112051</v>
+        <v>104.53675006</v>
       </c>
       <c r="E111" t="n">
-        <v>97.870998</v>
+        <v>91.83820308</v>
       </c>
       <c r="F111" t="n">
-        <v>102.61245427</v>
+        <v>97.37633476000001</v>
       </c>
       <c r="G111" t="n">
-        <v>102.95686837</v>
+        <v>98.39925431</v>
       </c>
       <c r="H111" t="n">
-        <v>104.62072532</v>
+        <v>94.91782166</v>
       </c>
       <c r="I111" t="n">
-        <v>123.30192476</v>
+        <v>90.53338951000001</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>105.87877865</v>
+        <v>106.36241439</v>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="n">
-        <v>108.40961019</v>
+        <v>105.51002383</v>
       </c>
       <c r="E112" t="n">
-        <v>98.07588251999999</v>
+        <v>90.27206194</v>
       </c>
       <c r="F112" t="n">
-        <v>105.32309959</v>
+        <v>102.24922721</v>
       </c>
       <c r="G112" t="n">
-        <v>105.18764019</v>
+        <v>99.79484674</v>
       </c>
       <c r="H112" t="n">
-        <v>104.84840323</v>
+        <v>99.47071757000001</v>
       </c>
       <c r="I112" t="n">
-        <v>136.04328893</v>
+        <v>105.38503448</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2009年1月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>111.68799815</v>
+        <v>103.57105425</v>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="n">
-        <v>104.13711879</v>
+        <v>105.52885262</v>
       </c>
       <c r="E113" t="n">
-        <v>97.75068123</v>
+        <v>87.02161510000001</v>
       </c>
       <c r="F113" t="n">
-        <v>101.52368494</v>
+        <v>105.134969</v>
       </c>
       <c r="G113" t="n">
-        <v>104.73873607</v>
+        <v>99.05033447</v>
       </c>
       <c r="H113" t="n">
-        <v>99.32969989999999</v>
+        <v>100.25018202</v>
       </c>
       <c r="I113" t="n">
-        <v>119.42538718</v>
+        <v>109.92642349</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>103.35179504</v>
+        <v>101.22393299</v>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="n">
-        <v>104.53675006</v>
+        <v>105.15240393</v>
       </c>
       <c r="E114" t="n">
-        <v>91.83820308</v>
+        <v>85.15085397999999</v>
       </c>
       <c r="F114" t="n">
-        <v>97.37633476000001</v>
+        <v>103.00824626</v>
       </c>
       <c r="G114" t="n">
-        <v>98.39925431</v>
+        <v>99.84613767</v>
       </c>
       <c r="H114" t="n">
-        <v>94.91782166</v>
+        <v>113.33064045</v>
       </c>
       <c r="I114" t="n">
-        <v>90.53338951000001</v>
+        <v>121.42639816</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>106.36241439</v>
+        <v>99.59535388</v>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="n">
-        <v>105.51002383</v>
+        <v>105.23864005</v>
       </c>
       <c r="E115" t="n">
-        <v>90.27206194</v>
+        <v>85.05175543999999</v>
       </c>
       <c r="F115" t="n">
-        <v>102.24922721</v>
+        <v>100.20046868</v>
       </c>
       <c r="G115" t="n">
-        <v>99.79484674</v>
+        <v>99.39847684999999</v>
       </c>
       <c r="H115" t="n">
-        <v>99.47071757000001</v>
+        <v>119.8940618</v>
       </c>
       <c r="I115" t="n">
-        <v>105.38503448</v>
+        <v>117.278648</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>103.57105425</v>
+        <v>98.54605737</v>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="n">
-        <v>105.52885262</v>
+        <v>105.32089747</v>
       </c>
       <c r="E116" t="n">
-        <v>87.02161510000001</v>
+        <v>86.94747636</v>
       </c>
       <c r="F116" t="n">
-        <v>105.134969</v>
+        <v>98.56682232</v>
       </c>
       <c r="G116" t="n">
-        <v>99.05033447</v>
+        <v>99.20606259</v>
       </c>
       <c r="H116" t="n">
-        <v>100.25018202</v>
+        <v>124.93769416</v>
       </c>
       <c r="I116" t="n">
-        <v>109.92642349</v>
+        <v>109.1807408</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>101.22393299</v>
+        <v>99.07587744</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
-        <v>105.15240393</v>
+        <v>105.29531988</v>
       </c>
       <c r="E117" t="n">
-        <v>85.15085397999999</v>
+        <v>90.48346395999999</v>
       </c>
       <c r="F117" t="n">
-        <v>103.00824626</v>
+        <v>100.46700493</v>
       </c>
       <c r="G117" t="n">
-        <v>99.84613767</v>
+        <v>100.91734392</v>
       </c>
       <c r="H117" t="n">
-        <v>113.33064045</v>
+        <v>123.51617303</v>
       </c>
       <c r="I117" t="n">
-        <v>121.42639816</v>
+        <v>122.0340969</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>99.59535388</v>
+        <v>99.14452171000001</v>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="n">
-        <v>105.23864005</v>
+        <v>105.54532891</v>
       </c>
       <c r="E118" t="n">
-        <v>85.05175543999999</v>
+        <v>93.24107321</v>
       </c>
       <c r="F118" t="n">
-        <v>100.20046868</v>
+        <v>99.62160915</v>
       </c>
       <c r="G118" t="n">
-        <v>99.39847684999999</v>
+        <v>101.68310219</v>
       </c>
       <c r="H118" t="n">
-        <v>119.8940618</v>
+        <v>117.40600943</v>
       </c>
       <c r="I118" t="n">
-        <v>117.278648</v>
+        <v>125.86986741</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>98.54605737</v>
+        <v>101.72579841</v>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="n">
-        <v>105.32089747</v>
+        <v>106.1292706</v>
       </c>
       <c r="E119" t="n">
-        <v>86.94747636</v>
+        <v>95.83375617</v>
       </c>
       <c r="F119" t="n">
-        <v>98.56682232</v>
+        <v>100.67403883</v>
       </c>
       <c r="G119" t="n">
-        <v>99.20606259</v>
+        <v>101.54108645</v>
       </c>
       <c r="H119" t="n">
-        <v>124.93769416</v>
+        <v>111.84257879</v>
       </c>
       <c r="I119" t="n">
-        <v>109.1807408</v>
+        <v>114.40133852</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>99.07587744</v>
+        <v>103.72015852</v>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="n">
-        <v>105.29531988</v>
+        <v>107.00112051</v>
       </c>
       <c r="E120" t="n">
-        <v>90.48346395999999</v>
+        <v>97.870998</v>
       </c>
       <c r="F120" t="n">
-        <v>100.46700493</v>
+        <v>102.61245427</v>
       </c>
       <c r="G120" t="n">
-        <v>100.91734392</v>
+        <v>102.95686837</v>
       </c>
       <c r="H120" t="n">
-        <v>123.51617303</v>
+        <v>104.62072532</v>
       </c>
       <c r="I120" t="n">
-        <v>122.0340969</v>
+        <v>123.30192476</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>99.14452171000001</v>
+        <v>105.87877865</v>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="n">
-        <v>105.54532891</v>
+        <v>108.40961019</v>
       </c>
       <c r="E121" t="n">
-        <v>93.24107321</v>
+        <v>98.07588251999999</v>
       </c>
       <c r="F121" t="n">
-        <v>99.62160915</v>
+        <v>105.32309959</v>
       </c>
       <c r="G121" t="n">
-        <v>101.68310219</v>
+        <v>105.18764019</v>
       </c>
       <c r="H121" t="n">
-        <v>117.40600943</v>
+        <v>104.84840323</v>
       </c>
       <c r="I121" t="n">
-        <v>125.86986741</v>
+        <v>136.04328893</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>111.77934778</v>
+        <v>104.01046562</v>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="n">
-        <v>111.98913292</v>
+        <v>109.5645786</v>
       </c>
       <c r="E122" t="n">
-        <v>106.23773615</v>
+        <v>96.62992829</v>
       </c>
       <c r="F122" t="n">
-        <v>110.67076351</v>
+        <v>106.14217172</v>
       </c>
       <c r="G122" t="n">
-        <v>110.04461625</v>
+        <v>103.67021581</v>
       </c>
       <c r="H122" t="n">
-        <v>117.2988334</v>
+        <v>109.24128741</v>
       </c>
       <c r="I122" t="n">
-        <v>130.08492407</v>
+        <v>116.77134385</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>112.54322355</v>
+        <v>108.76466727</v>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="n">
-        <v>114.03523062</v>
+        <v>109.47796837</v>
       </c>
       <c r="E123" t="n">
-        <v>109.26694648</v>
+        <v>98.28094256</v>
       </c>
       <c r="F123" t="n">
-        <v>118.15527482</v>
+        <v>108.41402647</v>
       </c>
       <c r="G123" t="n">
-        <v>111.58923022</v>
+        <v>106.20208725</v>
       </c>
       <c r="H123" t="n">
-        <v>128.4577344</v>
+        <v>118.83606761</v>
       </c>
       <c r="I123" t="n">
-        <v>120.68065788</v>
+        <v>124.55423137</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>111.42672349</v>
+        <v>106.36345847</v>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="n">
-        <v>115.11186563</v>
+        <v>109.09606466</v>
       </c>
       <c r="E124" t="n">
-        <v>109.89541204</v>
+        <v>97.67143840999999</v>
       </c>
       <c r="F124" t="n">
-        <v>119.47449147</v>
+        <v>105.49456638</v>
       </c>
       <c r="G124" t="n">
-        <v>109.38994319</v>
+        <v>105.16506412</v>
       </c>
       <c r="H124" t="n">
-        <v>135.67993054</v>
+        <v>117.86263441</v>
       </c>
       <c r="I124" t="n">
-        <v>92.92014381</v>
+        <v>117.52173843</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2010年1月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>104.01046562</v>
+        <v>105.76435051</v>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="n">
-        <v>109.5645786</v>
+        <v>110.56159834</v>
       </c>
       <c r="E125" t="n">
-        <v>96.62992829</v>
+        <v>98.01973236000001</v>
       </c>
       <c r="F125" t="n">
-        <v>106.14217172</v>
+        <v>101.67206107</v>
       </c>
       <c r="G125" t="n">
-        <v>103.67021581</v>
+        <v>105.91115462</v>
       </c>
       <c r="H125" t="n">
-        <v>109.24128741</v>
+        <v>115.56819736</v>
       </c>
       <c r="I125" t="n">
-        <v>116.77134385</v>
+        <v>124.0325233</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>108.76466727</v>
+        <v>105.90581314</v>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="n">
-        <v>109.47796837</v>
+        <v>111.25590479</v>
       </c>
       <c r="E126" t="n">
-        <v>98.28094256</v>
+        <v>100.40605123</v>
       </c>
       <c r="F126" t="n">
-        <v>108.41402647</v>
+        <v>100.11792315</v>
       </c>
       <c r="G126" t="n">
-        <v>106.20208725</v>
+        <v>105.95534171</v>
       </c>
       <c r="H126" t="n">
-        <v>118.83606761</v>
+        <v>111.579374</v>
       </c>
       <c r="I126" t="n">
-        <v>124.55423137</v>
+        <v>120.40537575</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>106.36345847</v>
+        <v>106.88236218</v>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="n">
-        <v>109.09606466</v>
+        <v>111.4917942</v>
       </c>
       <c r="E127" t="n">
-        <v>97.67143840999999</v>
+        <v>101.58563035</v>
       </c>
       <c r="F127" t="n">
-        <v>105.49456638</v>
+        <v>102.17604009</v>
       </c>
       <c r="G127" t="n">
-        <v>105.16506412</v>
+        <v>105.54128776</v>
       </c>
       <c r="H127" t="n">
-        <v>117.86263441</v>
+        <v>108.405264</v>
       </c>
       <c r="I127" t="n">
-        <v>117.52173843</v>
+        <v>113.35576165</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>105.76435051</v>
+        <v>107.94995215</v>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="n">
-        <v>110.56159834</v>
+        <v>111.54366182</v>
       </c>
       <c r="E128" t="n">
-        <v>98.01973236000001</v>
+        <v>103.8545086</v>
       </c>
       <c r="F128" t="n">
-        <v>101.67206107</v>
+        <v>107.51873033</v>
       </c>
       <c r="G128" t="n">
-        <v>105.91115462</v>
+        <v>106.74075216</v>
       </c>
       <c r="H128" t="n">
-        <v>115.56819736</v>
+        <v>103.20542138</v>
       </c>
       <c r="I128" t="n">
-        <v>124.0325233</v>
+        <v>121.88125872</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>105.90581314</v>
+        <v>108.98443083</v>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="n">
-        <v>111.25590479</v>
+        <v>111.69871977</v>
       </c>
       <c r="E129" t="n">
-        <v>100.40605123</v>
+        <v>105.17108304</v>
       </c>
       <c r="F129" t="n">
-        <v>100.11792315</v>
+        <v>109.8464502</v>
       </c>
       <c r="G129" t="n">
-        <v>105.95534171</v>
+        <v>107.37663615</v>
       </c>
       <c r="H129" t="n">
-        <v>111.579374</v>
+        <v>106.04415251</v>
       </c>
       <c r="I129" t="n">
-        <v>120.40537575</v>
+        <v>118.79789109</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>106.88236218</v>
+        <v>111.62116068</v>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="n">
-        <v>111.4917942</v>
+        <v>111.82253014</v>
       </c>
       <c r="E130" t="n">
-        <v>101.58563035</v>
+        <v>105.00718828</v>
       </c>
       <c r="F130" t="n">
-        <v>102.17604009</v>
+        <v>109.9783634</v>
       </c>
       <c r="G130" t="n">
-        <v>105.54128776</v>
+        <v>107.97724172</v>
       </c>
       <c r="H130" t="n">
-        <v>108.405264</v>
+        <v>111.71745195</v>
       </c>
       <c r="I130" t="n">
-        <v>113.35576165</v>
+        <v>117.33575865</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>107.94995215</v>
+        <v>111.77934778</v>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="n">
-        <v>111.54366182</v>
+        <v>111.98913292</v>
       </c>
       <c r="E131" t="n">
-        <v>103.8545086</v>
+        <v>106.23773615</v>
       </c>
       <c r="F131" t="n">
-        <v>107.51873033</v>
+        <v>110.67076351</v>
       </c>
       <c r="G131" t="n">
-        <v>106.74075216</v>
+        <v>110.04461625</v>
       </c>
       <c r="H131" t="n">
-        <v>103.20542138</v>
+        <v>117.2988334</v>
       </c>
       <c r="I131" t="n">
-        <v>121.88125872</v>
+        <v>130.08492407</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>108.98443083</v>
+        <v>112.54322355</v>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="n">
-        <v>111.69871977</v>
+        <v>114.03523062</v>
       </c>
       <c r="E132" t="n">
-        <v>105.17108304</v>
+        <v>109.26694648</v>
       </c>
       <c r="F132" t="n">
-        <v>109.8464502</v>
+        <v>118.15527482</v>
       </c>
       <c r="G132" t="n">
-        <v>107.37663615</v>
+        <v>111.58923022</v>
       </c>
       <c r="H132" t="n">
-        <v>106.04415251</v>
+        <v>128.4577344</v>
       </c>
       <c r="I132" t="n">
-        <v>118.79789109</v>
+        <v>120.68065788</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>111.62116068</v>
+        <v>111.42672349</v>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="n">
-        <v>111.82253014</v>
+        <v>115.11186563</v>
       </c>
       <c r="E133" t="n">
-        <v>105.00718828</v>
+        <v>109.89541204</v>
       </c>
       <c r="F133" t="n">
-        <v>109.9783634</v>
+        <v>119.47449147</v>
       </c>
       <c r="G133" t="n">
-        <v>107.97724172</v>
+        <v>109.38994319</v>
       </c>
       <c r="H133" t="n">
-        <v>111.71745195</v>
+        <v>135.67993054</v>
       </c>
       <c r="I133" t="n">
-        <v>117.33575865</v>
+        <v>92.92014381</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>112.42230256</v>
+        <v>111.33213539</v>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="n">
-        <v>111.78908101</v>
+        <v>114.80627261</v>
       </c>
       <c r="E134" t="n">
-        <v>126.2031868</v>
+        <v>110.45958713</v>
       </c>
       <c r="F134" t="n">
-        <v>113.01744961</v>
+        <v>119.52390121</v>
       </c>
       <c r="G134" t="n">
-        <v>111.74229351</v>
+        <v>110.21128929</v>
       </c>
       <c r="H134" t="n">
-        <v>111.0178289</v>
+        <v>135.35029523</v>
       </c>
       <c r="I134" t="n">
-        <v>92.56292122000001</v>
+        <v>101.22423566</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>110.78814087</v>
+        <v>109.28583752</v>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="n">
-        <v>109.31356066</v>
+        <v>114.45669181</v>
       </c>
       <c r="E135" t="n">
-        <v>120.0359514</v>
+        <v>112.67891682</v>
       </c>
       <c r="F135" t="n">
-        <v>104.68555843</v>
+        <v>118.85971853</v>
       </c>
       <c r="G135" t="n">
-        <v>108.84735648</v>
+        <v>110.7067133</v>
       </c>
       <c r="H135" t="n">
-        <v>110.68108146</v>
+        <v>130.54171523</v>
       </c>
       <c r="I135" t="n">
-        <v>88.75305914</v>
+        <v>105.35604011</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>109.84084125</v>
+        <v>110.7</v>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="n">
-        <v>107.24772408</v>
+        <v>114.7</v>
       </c>
       <c r="E136" t="n">
-        <v>117.07006372</v>
+        <v>116.6</v>
       </c>
       <c r="F136" t="n">
-        <v>101.39873831</v>
+        <v>113.9</v>
       </c>
       <c r="G136" t="n">
-        <v>109.27978884</v>
+        <v>111.5</v>
       </c>
       <c r="H136" t="n">
-        <v>104.02383913</v>
+        <v>129.6</v>
       </c>
       <c r="I136" t="n">
-        <v>112.24493639</v>
+        <v>103.7</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2011年1月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>111.33213539</v>
+        <v>112.3</v>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="n">
-        <v>114.80627261</v>
+        <v>113.6</v>
       </c>
       <c r="E137" t="n">
-        <v>110.45958713</v>
+        <v>120.6</v>
       </c>
       <c r="F137" t="n">
-        <v>119.52390121</v>
+        <v>114.4</v>
       </c>
       <c r="G137" t="n">
-        <v>110.21128929</v>
+        <v>111.2</v>
       </c>
       <c r="H137" t="n">
-        <v>135.35029523</v>
+        <v>130.2</v>
       </c>
       <c r="I137" t="n">
-        <v>101.22423566</v>
+        <v>92.3</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>109.28583752</v>
+        <v>112.8</v>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="n">
-        <v>114.45669181</v>
+        <v>112.8</v>
       </c>
       <c r="E138" t="n">
-        <v>112.67891682</v>
+        <v>123.3</v>
       </c>
       <c r="F138" t="n">
-        <v>118.85971853</v>
+        <v>119.3</v>
       </c>
       <c r="G138" t="n">
-        <v>110.7067133</v>
+        <v>111.4</v>
       </c>
       <c r="H138" t="n">
-        <v>130.54171523</v>
+        <v>120.5</v>
       </c>
       <c r="I138" t="n">
-        <v>105.35604011</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>110.7</v>
+        <v>114.2</v>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="n">
-        <v>114.7</v>
+        <v>112.4</v>
       </c>
       <c r="E139" t="n">
-        <v>116.6</v>
+        <v>130.9</v>
       </c>
       <c r="F139" t="n">
-        <v>113.9</v>
+        <v>122.7</v>
       </c>
       <c r="G139" t="n">
-        <v>111.5</v>
+        <v>114</v>
       </c>
       <c r="H139" t="n">
-        <v>129.6</v>
+        <v>109.4</v>
       </c>
       <c r="I139" t="n">
-        <v>103.7</v>
+        <v>107.2</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>112.3</v>
+        <v>115.07985396</v>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="n">
-        <v>113.6</v>
+        <v>112.31207463</v>
       </c>
       <c r="E140" t="n">
-        <v>120.6</v>
+        <v>132.65334293</v>
       </c>
       <c r="F140" t="n">
-        <v>114.4</v>
+        <v>120.35748801</v>
       </c>
       <c r="G140" t="n">
-        <v>111.2</v>
+        <v>114.39712669</v>
       </c>
       <c r="H140" t="n">
-        <v>130.2</v>
+        <v>105.02901427</v>
       </c>
       <c r="I140" t="n">
-        <v>92.3</v>
+        <v>107.45972921</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>112.8</v>
+        <v>114.78502634</v>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="n">
-        <v>112.8</v>
+        <v>112.31956469</v>
       </c>
       <c r="E141" t="n">
-        <v>123.3</v>
+        <v>128.75047487</v>
       </c>
       <c r="F141" t="n">
-        <v>119.3</v>
+        <v>116.80549282</v>
       </c>
       <c r="G141" t="n">
-        <v>111.4</v>
+        <v>113.12781026</v>
       </c>
       <c r="H141" t="n">
-        <v>120.5</v>
+        <v>104.23196561</v>
       </c>
       <c r="I141" t="n">
-        <v>92.5</v>
+        <v>99.91346511</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>114.2</v>
+        <v>114.17398294</v>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="n">
-        <v>112.4</v>
+        <v>112.05820191</v>
       </c>
       <c r="E142" t="n">
-        <v>130.9</v>
+        <v>128.09937928</v>
       </c>
       <c r="F142" t="n">
-        <v>122.7</v>
+        <v>114.52301252</v>
       </c>
       <c r="G142" t="n">
-        <v>114</v>
+        <v>113.16092727</v>
       </c>
       <c r="H142" t="n">
-        <v>109.4</v>
+        <v>106.17406303</v>
       </c>
       <c r="I142" t="n">
-        <v>107.2</v>
+        <v>101.63667354</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>115.07985396</v>
+        <v>112.42230256</v>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="n">
-        <v>112.31207463</v>
+        <v>111.78908101</v>
       </c>
       <c r="E143" t="n">
-        <v>132.65334293</v>
+        <v>126.2031868</v>
       </c>
       <c r="F143" t="n">
-        <v>120.35748801</v>
+        <v>113.01744961</v>
       </c>
       <c r="G143" t="n">
-        <v>114.39712669</v>
+        <v>111.74229351</v>
       </c>
       <c r="H143" t="n">
-        <v>105.02901427</v>
+        <v>111.0178289</v>
       </c>
       <c r="I143" t="n">
-        <v>107.45972921</v>
+        <v>92.56292122000001</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>114.78502634</v>
+        <v>110.78814087</v>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="n">
-        <v>112.31956469</v>
+        <v>109.31356066</v>
       </c>
       <c r="E144" t="n">
-        <v>128.75047487</v>
+        <v>120.0359514</v>
       </c>
       <c r="F144" t="n">
-        <v>116.80549282</v>
+        <v>104.68555843</v>
       </c>
       <c r="G144" t="n">
-        <v>113.12781026</v>
+        <v>108.84735648</v>
       </c>
       <c r="H144" t="n">
-        <v>104.23196561</v>
+        <v>110.68108146</v>
       </c>
       <c r="I144" t="n">
-        <v>99.91346511</v>
+        <v>88.75305914</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>114.17398294</v>
+        <v>109.84084125</v>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="n">
-        <v>112.05820191</v>
+        <v>107.24772408</v>
       </c>
       <c r="E145" t="n">
-        <v>128.09937928</v>
+        <v>117.07006372</v>
       </c>
       <c r="F145" t="n">
-        <v>114.52301252</v>
+        <v>101.39873831</v>
       </c>
       <c r="G145" t="n">
-        <v>113.16092727</v>
+        <v>109.27978884</v>
       </c>
       <c r="H145" t="n">
-        <v>106.17406303</v>
+        <v>104.02383913</v>
       </c>
       <c r="I145" t="n">
-        <v>101.63667354</v>
+        <v>112.24493639</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>104.25585761</v>
+        <v>113.46606409</v>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="n">
-        <v>103.89258575</v>
+        <v>106.30530087</v>
       </c>
       <c r="E146" t="n">
-        <v>96.00789702</v>
+        <v>119.28528237</v>
       </c>
       <c r="F146" t="n">
-        <v>100.0385608</v>
+        <v>98.40679227</v>
       </c>
       <c r="G146" t="n">
-        <v>102.05972556</v>
+        <v>110.72719545</v>
       </c>
       <c r="H146" t="n">
-        <v>104.04365207</v>
+        <v>102.09491715</v>
       </c>
       <c r="I146" t="n">
-        <v>100.89705597</v>
+        <v>123.25854231</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>104.49310313</v>
+        <v>107.54985181</v>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="n">
-        <v>103.82761397</v>
+        <v>105.57039558</v>
       </c>
       <c r="E147" t="n">
-        <v>98.82727765</v>
+        <v>113.61376021</v>
       </c>
       <c r="F147" t="n">
-        <v>103.60462829</v>
+        <v>89.56295308</v>
       </c>
       <c r="G147" t="n">
-        <v>103.13970201</v>
+        <v>106.42367198</v>
       </c>
       <c r="H147" t="n">
-        <v>96.06594598</v>
+        <v>93.85901167999999</v>
       </c>
       <c r="I147" t="n">
-        <v>111.29067564</v>
+        <v>106.59011251</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>105.63357458</v>
+        <v>111.41025776</v>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="n">
-        <v>104.03602041</v>
+        <v>104.59908916</v>
       </c>
       <c r="E148" t="n">
-        <v>101.72706092</v>
+        <v>111.89445774</v>
       </c>
       <c r="F148" t="n">
-        <v>108.6904259</v>
+        <v>94.65235086</v>
       </c>
       <c r="G148" t="n">
-        <v>104.24271062</v>
+        <v>107.7993074</v>
       </c>
       <c r="H148" t="n">
-        <v>93.94266810000001</v>
+        <v>93.71120556</v>
       </c>
       <c r="I148" t="n">
-        <v>114.25703161</v>
+        <v>120.73102361</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2012年1月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>113.46606409</v>
+        <v>111.16080981</v>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="n">
-        <v>106.30530087</v>
+        <v>104.06142219</v>
       </c>
       <c r="E149" t="n">
-        <v>119.28528237</v>
+        <v>108.95188383</v>
       </c>
       <c r="F149" t="n">
-        <v>98.40679227</v>
+        <v>94.26127236000001</v>
       </c>
       <c r="G149" t="n">
-        <v>110.72719545</v>
+        <v>107.24634103</v>
       </c>
       <c r="H149" t="n">
-        <v>102.09491715</v>
+        <v>90.24076531999999</v>
       </c>
       <c r="I149" t="n">
-        <v>123.25854231</v>
+        <v>127.86576705</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>107.54985181</v>
+        <v>111.06834955</v>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="n">
-        <v>105.57039558</v>
+        <v>103.66073191</v>
       </c>
       <c r="E150" t="n">
-        <v>113.61376021</v>
+        <v>105.98761422</v>
       </c>
       <c r="F150" t="n">
-        <v>89.56295308</v>
+        <v>90.48799040999999</v>
       </c>
       <c r="G150" t="n">
-        <v>106.42367198</v>
+        <v>106.78967933</v>
       </c>
       <c r="H150" t="n">
-        <v>93.85901167999999</v>
+        <v>92.80737098</v>
       </c>
       <c r="I150" t="n">
-        <v>106.59011251</v>
+        <v>131.11839754</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>111.41025776</v>
+        <v>108.02856359</v>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="n">
-        <v>104.59908916</v>
+        <v>103.42884373</v>
       </c>
       <c r="E151" t="n">
-        <v>111.89445774</v>
+        <v>99.39268439999999</v>
       </c>
       <c r="F151" t="n">
-        <v>94.65235086</v>
+        <v>96.57503194</v>
       </c>
       <c r="G151" t="n">
-        <v>107.7993074</v>
+        <v>104.15766791</v>
       </c>
       <c r="H151" t="n">
-        <v>93.71120556</v>
+        <v>100.58737943</v>
       </c>
       <c r="I151" t="n">
-        <v>120.73102361</v>
+        <v>111.600837</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>111.16080981</v>
+        <v>106.25186278</v>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="n">
-        <v>104.06142219</v>
+        <v>103.18358782</v>
       </c>
       <c r="E152" t="n">
-        <v>108.95188383</v>
+        <v>94.95817792</v>
       </c>
       <c r="F152" t="n">
-        <v>94.26127236000001</v>
+        <v>93.48883542999999</v>
       </c>
       <c r="G152" t="n">
-        <v>107.24634103</v>
+        <v>102.8919894</v>
       </c>
       <c r="H152" t="n">
-        <v>90.24076531999999</v>
+        <v>109.07797455</v>
       </c>
       <c r="I152" t="n">
-        <v>127.86576705</v>
+        <v>107.47536608</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>111.06834955</v>
+        <v>105.34498149</v>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="n">
-        <v>103.66073191</v>
+        <v>103.28301999</v>
       </c>
       <c r="E153" t="n">
-        <v>105.98761422</v>
+        <v>94.38846546000001</v>
       </c>
       <c r="F153" t="n">
-        <v>90.48799040999999</v>
+        <v>96.83579747</v>
       </c>
       <c r="G153" t="n">
-        <v>106.78967933</v>
+        <v>103.81581039</v>
       </c>
       <c r="H153" t="n">
-        <v>92.80737098</v>
+        <v>109.75841936</v>
       </c>
       <c r="I153" t="n">
-        <v>131.11839754</v>
+        <v>123.18745305</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>108.02856359</v>
+        <v>104.17317687</v>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="n">
-        <v>103.42884373</v>
+        <v>103.80234848</v>
       </c>
       <c r="E154" t="n">
-        <v>99.39268439999999</v>
+        <v>94.88241048</v>
       </c>
       <c r="F154" t="n">
-        <v>96.57503194</v>
+        <v>100.22584774</v>
       </c>
       <c r="G154" t="n">
-        <v>104.15766791</v>
+        <v>102.82079099</v>
       </c>
       <c r="H154" t="n">
-        <v>100.58737943</v>
+        <v>107.34573904</v>
       </c>
       <c r="I154" t="n">
-        <v>111.600837</v>
+        <v>110.54131495</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>106.25186278</v>
+        <v>104.25585761</v>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="n">
-        <v>103.18358782</v>
+        <v>103.89258575</v>
       </c>
       <c r="E155" t="n">
-        <v>94.95817792</v>
+        <v>96.00789702</v>
       </c>
       <c r="F155" t="n">
-        <v>93.48883542999999</v>
+        <v>100.0385608</v>
       </c>
       <c r="G155" t="n">
-        <v>102.8919894</v>
+        <v>102.05972556</v>
       </c>
       <c r="H155" t="n">
-        <v>109.07797455</v>
+        <v>104.04365207</v>
       </c>
       <c r="I155" t="n">
-        <v>107.47536608</v>
+        <v>100.89705597</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>105.34498149</v>
+        <v>104.49310313</v>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="n">
-        <v>103.28301999</v>
+        <v>103.82761397</v>
       </c>
       <c r="E156" t="n">
-        <v>94.38846546000001</v>
+        <v>98.82727765</v>
       </c>
       <c r="F156" t="n">
-        <v>96.83579747</v>
+        <v>103.60462829</v>
       </c>
       <c r="G156" t="n">
-        <v>103.81581039</v>
+        <v>103.13970201</v>
       </c>
       <c r="H156" t="n">
-        <v>109.75841936</v>
+        <v>96.06594598</v>
       </c>
       <c r="I156" t="n">
-        <v>123.18745305</v>
+        <v>111.29067564</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>104.17317687</v>
+        <v>105.63357458</v>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="n">
-        <v>103.80234848</v>
+        <v>104.03602041</v>
       </c>
       <c r="E157" t="n">
-        <v>94.88241048</v>
+        <v>101.72706092</v>
       </c>
       <c r="F157" t="n">
-        <v>100.22584774</v>
+        <v>108.6904259</v>
       </c>
       <c r="G157" t="n">
-        <v>102.82079099</v>
+        <v>104.24271062</v>
       </c>
       <c r="H157" t="n">
-        <v>107.34573904</v>
+        <v>93.94266810000001</v>
       </c>
       <c r="I157" t="n">
-        <v>110.54131495</v>
+        <v>114.25703161</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>106.65341755</v>
+        <v>101.87867676</v>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="n">
-        <v>103.62906109</v>
+        <v>104.53663048</v>
       </c>
       <c r="E158" t="n">
-        <v>105.70839699</v>
+        <v>101.45971263</v>
       </c>
       <c r="F158" t="n">
-        <v>99.29898279</v>
+        <v>110.77863796</v>
       </c>
       <c r="G158" t="n">
-        <v>106.50318012</v>
+        <v>102.72100286</v>
       </c>
       <c r="H158" t="n">
-        <v>107.98824854</v>
+        <v>93.08003979</v>
       </c>
       <c r="I158" t="n">
-        <v>130.94758456</v>
+        <v>101.98957053</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>106.72020226</v>
+        <v>107.13724589</v>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="n">
-        <v>103.83200469</v>
+        <v>105.02453141</v>
       </c>
       <c r="E159" t="n">
-        <v>105.38858523</v>
+        <v>105.42619389</v>
       </c>
       <c r="F159" t="n">
-        <v>98.41186973000001</v>
+        <v>119.33274801</v>
       </c>
       <c r="G159" t="n">
-        <v>105.93271876</v>
+        <v>105.90545661</v>
       </c>
       <c r="H159" t="n">
-        <v>110.17217802</v>
+        <v>103.79405998</v>
       </c>
       <c r="I159" t="n">
-        <v>121.8099561</v>
+        <v>109.61568623</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>105.65905427</v>
+        <v>100.95662692</v>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="n">
-        <v>103.74695176</v>
+        <v>105.08171671</v>
       </c>
       <c r="E160" t="n">
-        <v>103.51428951</v>
+        <v>103.17605655</v>
       </c>
       <c r="F160" t="n">
-        <v>95.96135843</v>
+        <v>113.73084667</v>
       </c>
       <c r="G160" t="n">
-        <v>104.06342632</v>
+        <v>102.51128335</v>
       </c>
       <c r="H160" t="n">
-        <v>115.44859571</v>
+        <v>104.94441326</v>
       </c>
       <c r="I160" t="n">
-        <v>102.02827104</v>
+        <v>89.18451752</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2013年1月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>101.87867676</v>
+        <v>101.55389543</v>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="n">
-        <v>104.53663048</v>
+        <v>105.04834909</v>
       </c>
       <c r="E161" t="n">
-        <v>101.45971263</v>
+        <v>101.98105197</v>
       </c>
       <c r="F161" t="n">
-        <v>110.77863796</v>
+        <v>112.34052682</v>
       </c>
       <c r="G161" t="n">
-        <v>102.72100286</v>
+        <v>104.00361373</v>
       </c>
       <c r="H161" t="n">
-        <v>93.08003979</v>
+        <v>105.06181991</v>
       </c>
       <c r="I161" t="n">
-        <v>101.98957053</v>
+        <v>105.62744775</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>107.13724589</v>
+        <v>102.0700358</v>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="n">
-        <v>105.02453141</v>
+        <v>105.01272691</v>
       </c>
       <c r="E162" t="n">
-        <v>105.42619389</v>
+        <v>102.13456918</v>
       </c>
       <c r="F162" t="n">
-        <v>119.33274801</v>
+        <v>111.50357192</v>
       </c>
       <c r="G162" t="n">
-        <v>105.90545661</v>
+        <v>103.11066947</v>
       </c>
       <c r="H162" t="n">
-        <v>103.79405998</v>
+        <v>105.98140465</v>
       </c>
       <c r="I162" t="n">
-        <v>109.61568623</v>
+        <v>97.32327587</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>100.95662692</v>
+        <v>103.22976375</v>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="n">
-        <v>105.08171671</v>
+        <v>105.11097704</v>
       </c>
       <c r="E163" t="n">
-        <v>103.17605655</v>
+        <v>104.98538947</v>
       </c>
       <c r="F163" t="n">
-        <v>113.73084667</v>
+        <v>100.27302481</v>
       </c>
       <c r="G163" t="n">
-        <v>102.51128335</v>
+        <v>104.86822257</v>
       </c>
       <c r="H163" t="n">
-        <v>104.94441326</v>
+        <v>110.91483079</v>
       </c>
       <c r="I163" t="n">
-        <v>89.18451752</v>
+        <v>109.06713058</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>101.55389543</v>
+        <v>103.25350028</v>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="n">
-        <v>105.04834909</v>
+        <v>105.10910825</v>
       </c>
       <c r="E164" t="n">
-        <v>101.98105197</v>
+        <v>106.03767262</v>
       </c>
       <c r="F164" t="n">
-        <v>112.34052682</v>
+        <v>101.5089652</v>
       </c>
       <c r="G164" t="n">
-        <v>104.00361373</v>
+        <v>104.90979561</v>
       </c>
       <c r="H164" t="n">
-        <v>105.06181991</v>
+        <v>106.26523544</v>
       </c>
       <c r="I164" t="n">
-        <v>105.62744775</v>
+        <v>111.18437903</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>102.0700358</v>
+        <v>104.40322211</v>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="n">
-        <v>105.01272691</v>
+        <v>104.63592771</v>
       </c>
       <c r="E165" t="n">
-        <v>102.13456918</v>
+        <v>107.22016967</v>
       </c>
       <c r="F165" t="n">
-        <v>111.50357192</v>
+        <v>100.26085447</v>
       </c>
       <c r="G165" t="n">
-        <v>103.11066947</v>
+        <v>104.54018558</v>
       </c>
       <c r="H165" t="n">
-        <v>105.98140465</v>
+        <v>106.80836072</v>
       </c>
       <c r="I165" t="n">
-        <v>97.32327587</v>
+        <v>104.171938</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>103.22976375</v>
+        <v>106.04559917</v>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="n">
-        <v>105.11097704</v>
+        <v>103.87096938</v>
       </c>
       <c r="E166" t="n">
-        <v>104.98538947</v>
+        <v>106.50689397</v>
       </c>
       <c r="F166" t="n">
-        <v>100.27302481</v>
+        <v>101.34769609</v>
       </c>
       <c r="G166" t="n">
-        <v>104.86822257</v>
+        <v>105.97645157</v>
       </c>
       <c r="H166" t="n">
-        <v>110.91483079</v>
+        <v>111.77376515</v>
       </c>
       <c r="I166" t="n">
-        <v>109.06713058</v>
+        <v>118.16219864</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>103.25350028</v>
+        <v>106.65341755</v>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="n">
-        <v>105.10910825</v>
+        <v>103.62906109</v>
       </c>
       <c r="E167" t="n">
-        <v>106.03767262</v>
+        <v>105.70839699</v>
       </c>
       <c r="F167" t="n">
-        <v>101.5089652</v>
+        <v>99.29898279</v>
       </c>
       <c r="G167" t="n">
-        <v>104.90979561</v>
+        <v>106.50318012</v>
       </c>
       <c r="H167" t="n">
-        <v>106.26523544</v>
+        <v>107.98824854</v>
       </c>
       <c r="I167" t="n">
-        <v>111.18437903</v>
+        <v>130.94758456</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>104.40322211</v>
+        <v>106.72020226</v>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="n">
-        <v>104.63592771</v>
+        <v>103.83200469</v>
       </c>
       <c r="E168" t="n">
-        <v>107.22016967</v>
+        <v>105.38858523</v>
       </c>
       <c r="F168" t="n">
-        <v>100.26085447</v>
+        <v>98.41186973000001</v>
       </c>
       <c r="G168" t="n">
-        <v>104.54018558</v>
+        <v>105.93271876</v>
       </c>
       <c r="H168" t="n">
-        <v>106.80836072</v>
+        <v>110.17217802</v>
       </c>
       <c r="I168" t="n">
-        <v>104.171938</v>
+        <v>121.8099561</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>106.04559917</v>
+        <v>105.65905427</v>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="n">
-        <v>103.87096938</v>
+        <v>103.74695176</v>
       </c>
       <c r="E169" t="n">
-        <v>106.50689397</v>
+        <v>103.51428951</v>
       </c>
       <c r="F169" t="n">
-        <v>101.34769609</v>
+        <v>95.96135843</v>
       </c>
       <c r="G169" t="n">
-        <v>105.97645157</v>
+        <v>104.06342632</v>
       </c>
       <c r="H169" t="n">
-        <v>111.77376515</v>
+        <v>115.44859571</v>
       </c>
       <c r="I169" t="n">
-        <v>118.16219864</v>
+        <v>102.02827104</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>103.16863761</v>
+        <v>106.5356496</v>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="n">
-        <v>103.60648316</v>
+        <v>103.13799673</v>
       </c>
       <c r="E170" t="n">
-        <v>101.36976691</v>
+        <v>100.64085974</v>
       </c>
       <c r="F170" t="n">
-        <v>116.463023</v>
+        <v>96.28116407</v>
       </c>
       <c r="G170" t="n">
-        <v>102.63023776</v>
+        <v>103.90090502</v>
       </c>
       <c r="H170" t="n">
-        <v>115.65202379</v>
+        <v>123.22510366</v>
       </c>
       <c r="I170" t="n">
-        <v>92.6910128</v>
+        <v>102.00827628</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>102.51003175</v>
+        <v>104.97905708</v>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="n">
-        <v>103.36222478</v>
+        <v>102.78135045</v>
       </c>
       <c r="E171" t="n">
-        <v>100.71633335</v>
+        <v>97.44470275</v>
       </c>
       <c r="F171" t="n">
-        <v>116.43981225</v>
+        <v>94.47244903000001</v>
       </c>
       <c r="G171" t="n">
-        <v>102.41299024</v>
+        <v>102.95191794</v>
       </c>
       <c r="H171" t="n">
-        <v>114.35973597</v>
+        <v>119.88292522</v>
       </c>
       <c r="I171" t="n">
-        <v>94.64509868</v>
+        <v>103.17207586</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>102.34210734</v>
+        <v>107.98798187</v>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="n">
-        <v>103.14372011</v>
+        <v>102.67344221</v>
       </c>
       <c r="E172" t="n">
-        <v>100.00774611</v>
+        <v>98.67533962</v>
       </c>
       <c r="F172" t="n">
-        <v>114.11249682</v>
+        <v>100.61581155</v>
       </c>
       <c r="G172" t="n">
-        <v>102.98811598</v>
+        <v>104.41525806</v>
       </c>
       <c r="H172" t="n">
-        <v>110.31066336</v>
+        <v>117.45471408</v>
       </c>
       <c r="I172" t="n">
-        <v>107.27304139</v>
+        <v>112.8446564</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2014年1月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>106.5356496</v>
+        <v>106.01861658</v>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="n">
-        <v>103.13799673</v>
+        <v>102.70773572</v>
       </c>
       <c r="E173" t="n">
-        <v>100.64085974</v>
+        <v>99.68002367</v>
       </c>
       <c r="F173" t="n">
-        <v>96.28116407</v>
+        <v>106.9224981</v>
       </c>
       <c r="G173" t="n">
-        <v>103.90090502</v>
+        <v>102.4881176</v>
       </c>
       <c r="H173" t="n">
-        <v>123.22510366</v>
+        <v>118.77556194</v>
       </c>
       <c r="I173" t="n">
-        <v>102.00827628</v>
+        <v>91.79530260999999</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>104.97905708</v>
+        <v>105.15648993</v>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="n">
-        <v>102.78135045</v>
+        <v>102.99181297</v>
       </c>
       <c r="E174" t="n">
-        <v>97.44470275</v>
+        <v>103.28378741</v>
       </c>
       <c r="F174" t="n">
-        <v>94.47244903000001</v>
+        <v>117.53188002</v>
       </c>
       <c r="G174" t="n">
-        <v>102.95191794</v>
+        <v>104.25097975</v>
       </c>
       <c r="H174" t="n">
-        <v>119.88292522</v>
+        <v>120.28475765</v>
       </c>
       <c r="I174" t="n">
-        <v>103.17207586</v>
+        <v>97.65812407999999</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>107.98798187</v>
+        <v>104.07775327</v>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="n">
-        <v>102.67344221</v>
+        <v>103.1586228</v>
       </c>
       <c r="E175" t="n">
-        <v>98.67533962</v>
+        <v>101.98654283</v>
       </c>
       <c r="F175" t="n">
-        <v>100.61581155</v>
+        <v>112.8740104</v>
       </c>
       <c r="G175" t="n">
-        <v>104.41525806</v>
+        <v>103.82269081</v>
       </c>
       <c r="H175" t="n">
-        <v>117.45471408</v>
+        <v>120.27734438</v>
       </c>
       <c r="I175" t="n">
-        <v>112.8446564</v>
+        <v>98.25092599</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>106.01861658</v>
+        <v>103.88078089</v>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="n">
-        <v>102.70773572</v>
+        <v>103.33653315</v>
       </c>
       <c r="E176" t="n">
-        <v>99.68002367</v>
+        <v>101.16659666</v>
       </c>
       <c r="F176" t="n">
-        <v>106.9224981</v>
+        <v>119.29957906</v>
       </c>
       <c r="G176" t="n">
-        <v>102.4881176</v>
+        <v>103.68409363</v>
       </c>
       <c r="H176" t="n">
-        <v>118.77556194</v>
+        <v>120.49652785</v>
       </c>
       <c r="I176" t="n">
-        <v>91.79530260999999</v>
+        <v>98.05628132</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>105.15648993</v>
+        <v>103.89608581</v>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="n">
-        <v>102.99181297</v>
+        <v>103.42638173</v>
       </c>
       <c r="E177" t="n">
-        <v>103.28378741</v>
+        <v>101.21569587</v>
       </c>
       <c r="F177" t="n">
-        <v>117.53188002</v>
+        <v>118.57226486</v>
       </c>
       <c r="G177" t="n">
-        <v>104.25097975</v>
+        <v>103.15676176</v>
       </c>
       <c r="H177" t="n">
-        <v>120.28475765</v>
+        <v>121.53478933</v>
       </c>
       <c r="I177" t="n">
-        <v>97.65812407999999</v>
+        <v>92.97609362</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>104.07775327</v>
+        <v>103.33739789</v>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="n">
-        <v>103.1586228</v>
+        <v>103.50067813</v>
       </c>
       <c r="E178" t="n">
-        <v>101.98654283</v>
+        <v>101.39403242</v>
       </c>
       <c r="F178" t="n">
-        <v>112.8740104</v>
+        <v>112.89350487</v>
       </c>
       <c r="G178" t="n">
-        <v>103.82269081</v>
+        <v>102.4746095</v>
       </c>
       <c r="H178" t="n">
-        <v>120.27734438</v>
+        <v>117.09251071</v>
       </c>
       <c r="I178" t="n">
-        <v>98.25092599</v>
+        <v>90.79169539</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>103.88078089</v>
+        <v>103.16863761</v>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="n">
-        <v>103.33653315</v>
+        <v>103.60648316</v>
       </c>
       <c r="E179" t="n">
-        <v>101.16659666</v>
+        <v>101.36976691</v>
       </c>
       <c r="F179" t="n">
-        <v>119.29957906</v>
+        <v>116.463023</v>
       </c>
       <c r="G179" t="n">
-        <v>103.68409363</v>
+        <v>102.63023776</v>
       </c>
       <c r="H179" t="n">
-        <v>120.49652785</v>
+        <v>115.65202379</v>
       </c>
       <c r="I179" t="n">
-        <v>98.05628132</v>
+        <v>92.6910128</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>103.89608581</v>
+        <v>102.51003175</v>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="n">
-        <v>103.42638173</v>
+        <v>103.36222478</v>
       </c>
       <c r="E180" t="n">
-        <v>101.21569587</v>
+        <v>100.71633335</v>
       </c>
       <c r="F180" t="n">
-        <v>118.57226486</v>
+        <v>116.43981225</v>
       </c>
       <c r="G180" t="n">
-        <v>103.15676176</v>
+        <v>102.41299024</v>
       </c>
       <c r="H180" t="n">
-        <v>121.53478933</v>
+        <v>114.35973597</v>
       </c>
       <c r="I180" t="n">
-        <v>92.97609362</v>
+        <v>94.64509868</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>103.33739789</v>
+        <v>102.34210734</v>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="n">
-        <v>103.50067813</v>
+        <v>103.14372011</v>
       </c>
       <c r="E181" t="n">
-        <v>101.39403242</v>
+        <v>100.00774611</v>
       </c>
       <c r="F181" t="n">
-        <v>112.89350487</v>
+        <v>114.11249682</v>
       </c>
       <c r="G181" t="n">
-        <v>102.4746095</v>
+        <v>102.98811598</v>
       </c>
       <c r="H181" t="n">
-        <v>117.09251071</v>
+        <v>110.31066336</v>
       </c>
       <c r="I181" t="n">
-        <v>90.79169539</v>
+        <v>107.27304139</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>101.97884396</v>
+        <v>100.38210691</v>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="n">
-        <v>101.3474345</v>
+        <v>103.07642373</v>
       </c>
       <c r="E182" t="n">
-        <v>106.82341763</v>
+        <v>99.35245275</v>
       </c>
       <c r="F182" t="n">
-        <v>86.18770748</v>
+        <v>108.55501069</v>
       </c>
       <c r="G182" t="n">
-        <v>101.86385722</v>
+        <v>101.18318856</v>
       </c>
       <c r="H182" t="n">
-        <v>90.80337863</v>
+        <v>102.95883796</v>
       </c>
       <c r="I182" t="n">
-        <v>104.95461847</v>
+        <v>99.38038847</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>102.29227608</v>
+        <v>102.09765979</v>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="n">
-        <v>101.32130957</v>
+        <v>103.01162642</v>
       </c>
       <c r="E183" t="n">
-        <v>106.01160219</v>
+        <v>101.5088631</v>
       </c>
       <c r="F183" t="n">
-        <v>86.43418201999999</v>
+        <v>111.31618442</v>
       </c>
       <c r="G183" t="n">
-        <v>102.31956523</v>
+        <v>102.40561532</v>
       </c>
       <c r="H183" t="n">
-        <v>92.78568618</v>
+        <v>103.61431724</v>
       </c>
       <c r="I183" t="n">
-        <v>109.76989316</v>
+        <v>104.33075206</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>102.71976473</v>
+        <v>101.42936775</v>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="n">
-        <v>101.34341237</v>
+        <v>102.88956851</v>
       </c>
       <c r="E184" t="n">
-        <v>105.94538142</v>
+        <v>103.07265848</v>
       </c>
       <c r="F184" t="n">
-        <v>88.92300410999999</v>
+        <v>105.40382467</v>
       </c>
       <c r="G184" t="n">
-        <v>102.70025367</v>
+        <v>102.26293794</v>
       </c>
       <c r="H184" t="n">
-        <v>93.12274087999999</v>
+        <v>106.32570915</v>
       </c>
       <c r="I184" t="n">
-        <v>111.90919088</v>
+        <v>100.28551558</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2015年1月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>100.38210691</v>
+        <v>100.93046214</v>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="n">
-        <v>103.07642373</v>
+        <v>102.88120109</v>
       </c>
       <c r="E185" t="n">
-        <v>99.35245275</v>
+        <v>104.71418208</v>
       </c>
       <c r="F185" t="n">
-        <v>108.55501069</v>
+        <v>96.19746275</v>
       </c>
       <c r="G185" t="n">
-        <v>101.18318856</v>
+        <v>102.64798418</v>
       </c>
       <c r="H185" t="n">
-        <v>102.95883796</v>
+        <v>101.32132572</v>
       </c>
       <c r="I185" t="n">
-        <v>99.38038847</v>
+        <v>107.08678658</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>102.09765979</v>
+        <v>100.62707547</v>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="n">
-        <v>103.01162642</v>
+        <v>102.60262876</v>
       </c>
       <c r="E186" t="n">
-        <v>101.5088631</v>
+        <v>102.83589393</v>
       </c>
       <c r="F186" t="n">
-        <v>111.31618442</v>
+        <v>86.90165971</v>
       </c>
       <c r="G186" t="n">
-        <v>102.40561532</v>
+        <v>101.55443615</v>
       </c>
       <c r="H186" t="n">
-        <v>103.61431724</v>
+        <v>96.64496805</v>
       </c>
       <c r="I186" t="n">
-        <v>104.33075206</v>
+        <v>106.4794677</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>101.42936775</v>
+        <v>101.78498295</v>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="n">
-        <v>102.88956851</v>
+        <v>102.22600835</v>
       </c>
       <c r="E187" t="n">
-        <v>103.07265848</v>
+        <v>103.42624151</v>
       </c>
       <c r="F187" t="n">
-        <v>105.40382467</v>
+        <v>88.99943033</v>
       </c>
       <c r="G187" t="n">
-        <v>102.26293794</v>
+        <v>101.81944607</v>
       </c>
       <c r="H187" t="n">
-        <v>106.32570915</v>
+        <v>90.75697936</v>
       </c>
       <c r="I187" t="n">
-        <v>100.28551558</v>
+        <v>111.38885277</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>100.93046214</v>
+        <v>102.55403306</v>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="n">
-        <v>102.88120109</v>
+        <v>102.09017965</v>
       </c>
       <c r="E188" t="n">
-        <v>104.71418208</v>
+        <v>107.28245046</v>
       </c>
       <c r="F188" t="n">
-        <v>96.19746275</v>
+        <v>85.80309338000001</v>
       </c>
       <c r="G188" t="n">
-        <v>102.64798418</v>
+        <v>102.66979029</v>
       </c>
       <c r="H188" t="n">
-        <v>101.32132572</v>
+        <v>91.26569871</v>
       </c>
       <c r="I188" t="n">
-        <v>107.08678658</v>
+        <v>110.67546396</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>100.62707547</v>
+        <v>102.2462681</v>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="n">
-        <v>102.60262876</v>
+        <v>101.91526192</v>
       </c>
       <c r="E189" t="n">
-        <v>102.83589393</v>
+        <v>108.85334307</v>
       </c>
       <c r="F189" t="n">
-        <v>86.90165971</v>
+        <v>89.00713071</v>
       </c>
       <c r="G189" t="n">
-        <v>101.55443615</v>
+        <v>103.60914634</v>
       </c>
       <c r="H189" t="n">
-        <v>96.64496805</v>
+        <v>91.80696516</v>
       </c>
       <c r="I189" t="n">
-        <v>106.4794677</v>
+        <v>116.12267757</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>101.78498295</v>
+        <v>101.69786712</v>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="n">
-        <v>102.22600835</v>
+        <v>101.60809447</v>
       </c>
       <c r="E190" t="n">
-        <v>103.42624151</v>
+        <v>107.80733688</v>
       </c>
       <c r="F190" t="n">
-        <v>88.99943033</v>
+        <v>89.89948792</v>
       </c>
       <c r="G190" t="n">
-        <v>101.81944607</v>
+        <v>102.66378707</v>
       </c>
       <c r="H190" t="n">
-        <v>90.75697936</v>
+        <v>89.22402971</v>
       </c>
       <c r="I190" t="n">
-        <v>111.38885277</v>
+        <v>110.65245334</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>102.55403306</v>
+        <v>101.97884396</v>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="n">
-        <v>102.09017965</v>
+        <v>101.3474345</v>
       </c>
       <c r="E191" t="n">
-        <v>107.28245046</v>
+        <v>106.82341763</v>
       </c>
       <c r="F191" t="n">
-        <v>85.80309338000001</v>
+        <v>86.18770748</v>
       </c>
       <c r="G191" t="n">
-        <v>102.66979029</v>
+        <v>101.86385722</v>
       </c>
       <c r="H191" t="n">
-        <v>91.26569871</v>
+        <v>90.80337863</v>
       </c>
       <c r="I191" t="n">
-        <v>110.67546396</v>
+        <v>104.95461847</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>102.2462681</v>
+        <v>102.29227608</v>
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="n">
-        <v>101.91526192</v>
+        <v>101.32130957</v>
       </c>
       <c r="E192" t="n">
-        <v>108.85334307</v>
+        <v>106.01160219</v>
       </c>
       <c r="F192" t="n">
-        <v>89.00713071</v>
+        <v>86.43418201999999</v>
       </c>
       <c r="G192" t="n">
-        <v>103.60914634</v>
+        <v>102.31956523</v>
       </c>
       <c r="H192" t="n">
-        <v>91.80696516</v>
+        <v>92.78568618</v>
       </c>
       <c r="I192" t="n">
-        <v>116.12267757</v>
+        <v>109.76989316</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>101.69786712</v>
+        <v>102.71976473</v>
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="n">
-        <v>101.60809447</v>
+        <v>101.34341237</v>
       </c>
       <c r="E193" t="n">
-        <v>107.80733688</v>
+        <v>105.94538142</v>
       </c>
       <c r="F193" t="n">
-        <v>89.89948792</v>
+        <v>88.92300410999999</v>
       </c>
       <c r="G193" t="n">
-        <v>102.66378707</v>
+        <v>102.70025367</v>
       </c>
       <c r="H193" t="n">
-        <v>89.22402971</v>
+        <v>93.12274087999999</v>
       </c>
       <c r="I193" t="n">
-        <v>110.65245334</v>
+        <v>111.90919088</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>105.4597566</v>
+        <v>102.81010352</v>
       </c>
       <c r="C194" t="n">
-        <v>103.8514949</v>
+        <v>110.27581435</v>
       </c>
       <c r="D194" t="n">
-        <v>100.3471428</v>
+        <v>100.84521665</v>
       </c>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="n">
-        <v>97.82678233</v>
+        <v>95.74310407</v>
       </c>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="n">
-        <v>105.657432999999</v>
+        <v>93.19770588</v>
       </c>
       <c r="I194" t="n">
-        <v>112.816779299999</v>
+        <v>115.12788715</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>105.4826928</v>
+        <v>103.59228879</v>
       </c>
       <c r="C195" t="n">
-        <v>104.3870799</v>
+        <v>114.04084653</v>
       </c>
       <c r="D195" t="n">
-        <v>100.6024333</v>
+        <v>100.76671502</v>
       </c>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="n">
-        <v>97.98275101</v>
+        <v>96.25946817000001</v>
       </c>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="n">
-        <v>102.4588151</v>
+        <v>92.11367869</v>
       </c>
       <c r="I195" t="n">
-        <v>115.5494744</v>
+        <v>131.11909908</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>104.7170528</v>
+        <v>103.07331242</v>
       </c>
       <c r="C196" t="n">
-        <v>104.939896</v>
+        <v>115.38840662</v>
       </c>
       <c r="D196" t="n">
-        <v>100.8984812</v>
+        <v>100.55389038</v>
       </c>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="n">
-        <v>95.82467234000001</v>
+        <v>94.33092271</v>
       </c>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="n">
-        <v>103.2620865</v>
+        <v>89.9952177</v>
       </c>
       <c r="I196" t="n">
-        <v>102.1370159</v>
+        <v>136.10773313</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>2016年1月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>102.81010352</v>
+        <v>104.52262149</v>
       </c>
       <c r="C197" t="n">
-        <v>110.27581435</v>
+        <v>118.89999909</v>
       </c>
       <c r="D197" t="n">
-        <v>100.84521665</v>
+        <v>100.55344563</v>
       </c>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="n">
-        <v>95.74310407</v>
+        <v>98.46498488</v>
       </c>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="n">
-        <v>93.19770588</v>
+        <v>92.51233795</v>
       </c>
       <c r="I197" t="n">
-        <v>115.12788715</v>
+        <v>122.50636853</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>103.59228879</v>
+        <v>105.25709728</v>
       </c>
       <c r="C198" t="n">
-        <v>114.04084653</v>
+        <v>119.66552098</v>
       </c>
       <c r="D198" t="n">
-        <v>100.76671502</v>
+        <v>100.64577973</v>
       </c>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="n">
-        <v>96.25946817000001</v>
+        <v>99.78774125</v>
       </c>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="n">
-        <v>92.11367869</v>
+        <v>92.66477867</v>
       </c>
       <c r="I198" t="n">
-        <v>131.11909908</v>
+        <v>106.35128671</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>103.07331242</v>
+        <v>105.85255258</v>
       </c>
       <c r="C199" t="n">
-        <v>115.38840662</v>
+        <v>118.15645626</v>
       </c>
       <c r="D199" t="n">
-        <v>100.55389038</v>
+        <v>100.75232243</v>
       </c>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="n">
-        <v>94.33092271</v>
+        <v>100.22168776</v>
       </c>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="n">
-        <v>89.9952177</v>
+        <v>96.65735093000001</v>
       </c>
       <c r="I199" t="n">
-        <v>136.10773313</v>
+        <v>93.23991709000001</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>104.52262149</v>
+        <v>106.19434082</v>
       </c>
       <c r="C200" t="n">
-        <v>118.89999909</v>
+        <v>110.76047489</v>
       </c>
       <c r="D200" t="n">
-        <v>100.55344563</v>
+        <v>100.50375834</v>
       </c>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="n">
-        <v>98.46498488</v>
+        <v>97.99640229000001</v>
       </c>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="n">
-        <v>92.51233795</v>
+        <v>100.54516537</v>
       </c>
       <c r="I200" t="n">
-        <v>122.50636853</v>
+        <v>95.50334884999999</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>105.25709728</v>
+        <v>105.86892814</v>
       </c>
       <c r="C201" t="n">
-        <v>119.66552098</v>
+        <v>104.9178755</v>
       </c>
       <c r="D201" t="n">
-        <v>100.64577973</v>
+        <v>100.32573236</v>
       </c>
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="n">
-        <v>99.78774125</v>
+        <v>92.74449464</v>
       </c>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="n">
-        <v>92.66477867</v>
+        <v>99.25698653000001</v>
       </c>
       <c r="I201" t="n">
-        <v>106.35128671</v>
+        <v>95.79617802</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>105.85255258</v>
+        <v>106.562555099999</v>
       </c>
       <c r="C202" t="n">
-        <v>118.15645626</v>
+        <v>104.3735077</v>
       </c>
       <c r="D202" t="n">
-        <v>100.75232243</v>
+        <v>100.216109599999</v>
       </c>
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="n">
-        <v>100.22168776</v>
+        <v>95.40265340000001</v>
       </c>
       <c r="G202" t="inlineStr"/>
       <c r="H202" t="n">
-        <v>96.65735093000001</v>
+        <v>106.4859895</v>
       </c>
       <c r="I202" t="n">
-        <v>93.23991709000001</v>
+        <v>107.060117599999</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>106.19434082</v>
+        <v>105.4597566</v>
       </c>
       <c r="C203" t="n">
-        <v>110.76047489</v>
+        <v>103.8514949</v>
       </c>
       <c r="D203" t="n">
-        <v>100.50375834</v>
+        <v>100.3471428</v>
       </c>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="n">
-        <v>97.99640229000001</v>
+        <v>97.82678233</v>
       </c>
       <c r="G203" t="inlineStr"/>
       <c r="H203" t="n">
-        <v>100.54516537</v>
+        <v>105.657432999999</v>
       </c>
       <c r="I203" t="n">
-        <v>95.50334884999999</v>
+        <v>112.816779299999</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>105.86892814</v>
+        <v>105.4826928</v>
       </c>
       <c r="C204" t="n">
-        <v>104.9178755</v>
+        <v>104.3870799</v>
       </c>
       <c r="D204" t="n">
-        <v>100.32573236</v>
+        <v>100.6024333</v>
       </c>
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="n">
-        <v>92.74449464</v>
+        <v>97.98275101</v>
       </c>
       <c r="G204" t="inlineStr"/>
       <c r="H204" t="n">
-        <v>99.25698653000001</v>
+        <v>102.4588151</v>
       </c>
       <c r="I204" t="n">
-        <v>95.79617802</v>
+        <v>115.5494744</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>106.562555099999</v>
+        <v>104.7170528</v>
       </c>
       <c r="C205" t="n">
-        <v>104.3735077</v>
+        <v>104.939896</v>
       </c>
       <c r="D205" t="n">
-        <v>100.216109599999</v>
+        <v>100.8984812</v>
       </c>
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="n">
-        <v>95.40265340000001</v>
+        <v>95.82467234000001</v>
       </c>
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="n">
-        <v>106.4859895</v>
+        <v>103.2620865</v>
       </c>
       <c r="I205" t="n">
-        <v>107.060117599999</v>
+        <v>102.1370159</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>104.0043584</v>
+        <v>106.7323071</v>
       </c>
       <c r="C206" t="n">
-        <v>95.1007625</v>
+        <v>105.8088211</v>
       </c>
       <c r="D206" t="n">
-        <v>101.4797558</v>
+        <v>101.1361128</v>
       </c>
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="n">
-        <v>103.0588863</v>
+        <v>91.45966712000001</v>
       </c>
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="n">
-        <v>99.38133257</v>
+        <v>105.023203</v>
       </c>
       <c r="I206" t="n">
-        <v>100.2782072</v>
+        <v>101.1623061</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>103.3532198</v>
+        <v>102.44142616</v>
       </c>
       <c r="C207" t="n">
-        <v>95.98271084</v>
+        <v>100.271594</v>
       </c>
       <c r="D207" t="n">
-        <v>101.4015221</v>
+        <v>101.07949693</v>
       </c>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="n">
-        <v>105.4252704</v>
+        <v>85.92708596</v>
       </c>
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="n">
-        <v>104.0625668</v>
+        <v>102.40831159</v>
       </c>
       <c r="I207" t="n">
-        <v>90.38150761999999</v>
+        <v>73.44954542000001</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>104.0882774</v>
+        <v>105.082635</v>
       </c>
       <c r="C208" t="n">
-        <v>96.45019388</v>
+        <v>99.17778323</v>
       </c>
       <c r="D208" t="n">
-        <v>101.2234571</v>
+        <v>101.2983732</v>
       </c>
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="n">
-        <v>111.1083906</v>
+        <v>88.70022978</v>
       </c>
       <c r="G208" t="inlineStr"/>
       <c r="H208" t="n">
-        <v>106.4002028</v>
+        <v>102.7887458</v>
       </c>
       <c r="I208" t="n">
-        <v>91.29437609</v>
+        <v>71.74344814</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>2017年1月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>106.7323071</v>
+        <v>106.1409384</v>
       </c>
       <c r="C209" t="n">
-        <v>105.8088211</v>
+        <v>95.88339977</v>
       </c>
       <c r="D209" t="n">
-        <v>101.1361128</v>
+        <v>101.4387202</v>
       </c>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="n">
-        <v>91.45966712000001</v>
+        <v>89.05848211</v>
       </c>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="n">
-        <v>105.023203</v>
+        <v>105.3717846</v>
       </c>
       <c r="I209" t="n">
-        <v>101.1623061</v>
+        <v>78.37132276</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>102.44142616</v>
+        <v>107.2714629</v>
       </c>
       <c r="C210" t="n">
-        <v>100.271594</v>
+        <v>92.92548563</v>
       </c>
       <c r="D210" t="n">
-        <v>101.07949693</v>
+        <v>101.3446069</v>
       </c>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="n">
-        <v>85.92708596</v>
+        <v>86.32387394</v>
       </c>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="n">
-        <v>102.40831159</v>
+        <v>111.3683493</v>
       </c>
       <c r="I210" t="n">
-        <v>73.44954542000001</v>
+        <v>93.77367858</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>105.082635</v>
+        <v>105.4170741</v>
       </c>
       <c r="C211" t="n">
-        <v>99.17778323</v>
+        <v>90.45914153</v>
       </c>
       <c r="D211" t="n">
-        <v>101.2983732</v>
+        <v>101.4834809</v>
       </c>
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="n">
-        <v>88.70022978</v>
+        <v>91.27834197999999</v>
       </c>
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="n">
-        <v>102.7887458</v>
+        <v>109.832852</v>
       </c>
       <c r="I211" t="n">
-        <v>71.74344814</v>
+        <v>106.1028667</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>106.1409384</v>
+        <v>104.5487919</v>
       </c>
       <c r="C212" t="n">
-        <v>95.88339977</v>
+        <v>91.15586816</v>
       </c>
       <c r="D212" t="n">
-        <v>101.4387202</v>
+        <v>101.5293003</v>
       </c>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="n">
-        <v>89.05848211</v>
+        <v>95.74953289</v>
       </c>
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="n">
-        <v>105.3717846</v>
+        <v>101.3979502</v>
       </c>
       <c r="I212" t="n">
-        <v>78.37132276</v>
+        <v>109.2606971</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>107.2714629</v>
+        <v>103.891738</v>
       </c>
       <c r="C213" t="n">
-        <v>92.92548563</v>
+        <v>92.48435455000001</v>
       </c>
       <c r="D213" t="n">
-        <v>101.3446069</v>
+        <v>101.5208639</v>
       </c>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="n">
-        <v>86.32387394</v>
+        <v>104.4042924</v>
       </c>
       <c r="G213" t="inlineStr"/>
       <c r="H213" t="n">
-        <v>111.3683493</v>
+        <v>99.71138297</v>
       </c>
       <c r="I213" t="n">
-        <v>93.77367858</v>
+        <v>109.7801545</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>105.4170741</v>
+        <v>102.6196622</v>
       </c>
       <c r="C214" t="n">
-        <v>90.45914153</v>
+        <v>93.28367007999999</v>
       </c>
       <c r="D214" t="n">
-        <v>101.4834809</v>
+        <v>101.5759646</v>
       </c>
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="n">
-        <v>91.27834197999999</v>
+        <v>103.7906392</v>
       </c>
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="n">
-        <v>109.832852</v>
+        <v>96.91564763</v>
       </c>
       <c r="I214" t="n">
-        <v>106.1028667</v>
+        <v>98.94747278</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>104.5487919</v>
+        <v>104.0043584</v>
       </c>
       <c r="C215" t="n">
-        <v>91.15586816</v>
+        <v>95.1007625</v>
       </c>
       <c r="D215" t="n">
-        <v>101.5293003</v>
+        <v>101.4797558</v>
       </c>
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="n">
-        <v>95.74953289</v>
+        <v>103.0588863</v>
       </c>
       <c r="G215" t="inlineStr"/>
       <c r="H215" t="n">
-        <v>101.3979502</v>
+        <v>99.38133257</v>
       </c>
       <c r="I215" t="n">
-        <v>109.2606971</v>
+        <v>100.2782072</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>103.891738</v>
+        <v>103.3532198</v>
       </c>
       <c r="C216" t="n">
-        <v>92.48435455000001</v>
+        <v>95.98271084</v>
       </c>
       <c r="D216" t="n">
-        <v>101.5208639</v>
+        <v>101.4015221</v>
       </c>
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="n">
-        <v>104.4042924</v>
+        <v>105.4252704</v>
       </c>
       <c r="G216" t="inlineStr"/>
       <c r="H216" t="n">
-        <v>99.71138297</v>
+        <v>104.0625668</v>
       </c>
       <c r="I216" t="n">
-        <v>109.7801545</v>
+        <v>90.38150761999999</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>102.6196622</v>
+        <v>104.0882774</v>
       </c>
       <c r="C217" t="n">
-        <v>93.28367007999999</v>
+        <v>96.45019388</v>
       </c>
       <c r="D217" t="n">
-        <v>101.5759646</v>
+        <v>101.2234571</v>
       </c>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="n">
-        <v>103.7906392</v>
+        <v>111.1083906</v>
       </c>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="n">
-        <v>96.91564763</v>
+        <v>106.4002028</v>
       </c>
       <c r="I217" t="n">
-        <v>98.94747278</v>
+        <v>91.29437609</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>100.63322365</v>
+        <v>102.4068863</v>
       </c>
       <c r="C218" t="n">
-        <v>100.62584671</v>
+        <v>94.69825633000001</v>
       </c>
       <c r="D218" t="n">
-        <v>100.69502081</v>
+        <v>101.2108476</v>
       </c>
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="n">
-        <v>108.41939085</v>
+        <v>113.8203878</v>
       </c>
       <c r="G218" t="inlineStr"/>
       <c r="H218" t="n">
-        <v>111.20311821</v>
+        <v>106.7036031</v>
       </c>
       <c r="I218" t="n">
-        <v>110.47291053</v>
+        <v>94.30584888</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>101.77841804</v>
+        <v>108.6189507</v>
       </c>
       <c r="C219" t="n">
-        <v>101.11070056</v>
+        <v>97.46743514000001</v>
       </c>
       <c r="D219" t="n">
-        <v>100.68147806</v>
+        <v>101.1501731</v>
       </c>
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="n">
-        <v>106.58109353</v>
+        <v>121.4789011</v>
       </c>
       <c r="G219" t="inlineStr"/>
       <c r="H219" t="n">
-        <v>112.68592632</v>
+        <v>108.5815323</v>
       </c>
       <c r="I219" t="n">
-        <v>101.5134734</v>
+        <v>118.2373028</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>101.88409299</v>
+        <v>105.4850977</v>
       </c>
       <c r="C220" t="n">
-        <v>101.30327906</v>
+        <v>94.66164021</v>
       </c>
       <c r="D220" t="n">
-        <v>100.5525778</v>
+        <v>101.1236116</v>
       </c>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="n">
-        <v>100.98668344</v>
+        <v>117.2250995</v>
       </c>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="n">
-        <v>108.93597107</v>
+        <v>107.5785138</v>
       </c>
       <c r="I220" t="n">
-        <v>104.5377542</v>
+        <v>109.3959931</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>2018年1月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>102.4068863</v>
+        <v>102.5735525</v>
       </c>
       <c r="C221" t="n">
-        <v>94.69825633000001</v>
+        <v>92.36236597</v>
       </c>
       <c r="D221" t="n">
-        <v>101.2108476</v>
+        <v>100.9392486</v>
       </c>
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="n">
-        <v>113.8203878</v>
+        <v>114.5725293</v>
       </c>
       <c r="G221" t="inlineStr"/>
       <c r="H221" t="n">
-        <v>106.7036031</v>
+        <v>104.4543415</v>
       </c>
       <c r="I221" t="n">
-        <v>94.30584888</v>
+        <v>108.4860365</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>108.6189507</v>
+        <v>100.2836695</v>
       </c>
       <c r="C222" t="n">
-        <v>97.46743514000001</v>
+        <v>91.93929312</v>
       </c>
       <c r="D222" t="n">
-        <v>101.1501731</v>
+        <v>100.8169503</v>
       </c>
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="n">
-        <v>121.4789011</v>
+        <v>119.7803319</v>
       </c>
       <c r="G222" t="inlineStr"/>
       <c r="H222" t="n">
-        <v>108.5815323</v>
+        <v>97.39487054</v>
       </c>
       <c r="I222" t="n">
-        <v>118.2373028</v>
+        <v>110.3351264</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>105.4850977</v>
+        <v>100.18461663</v>
       </c>
       <c r="C223" t="n">
-        <v>94.66164021</v>
+        <v>94.12457139</v>
       </c>
       <c r="D223" t="n">
-        <v>101.1236116</v>
+        <v>100.54489678</v>
       </c>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="n">
-        <v>117.2250995</v>
+        <v>114.54566536</v>
       </c>
       <c r="G223" t="inlineStr"/>
       <c r="H223" t="n">
-        <v>107.5785138</v>
+        <v>94.49284772999999</v>
       </c>
       <c r="I223" t="n">
-        <v>109.3959931</v>
+        <v>109.52764968</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>102.5735525</v>
+        <v>100.04947952</v>
       </c>
       <c r="C224" t="n">
-        <v>92.36236597</v>
+        <v>95.78991176</v>
       </c>
       <c r="D224" t="n">
-        <v>100.9392486</v>
+        <v>100.50025671</v>
       </c>
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="n">
-        <v>114.5725293</v>
+        <v>111.31074468</v>
       </c>
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="n">
-        <v>104.4543415</v>
+        <v>100.30250334</v>
       </c>
       <c r="I224" t="n">
-        <v>108.4860365</v>
+        <v>104.13838593</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>100.2836695</v>
+        <v>100.93269161</v>
       </c>
       <c r="C225" t="n">
-        <v>91.93929312</v>
+        <v>98.44785133000001</v>
       </c>
       <c r="D225" t="n">
-        <v>100.8169503</v>
+        <v>100.43096422</v>
       </c>
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="n">
-        <v>119.7803319</v>
+        <v>110.14170757</v>
       </c>
       <c r="G225" t="inlineStr"/>
       <c r="H225" t="n">
-        <v>97.39487054</v>
+        <v>105.43181417</v>
       </c>
       <c r="I225" t="n">
-        <v>110.3351264</v>
+        <v>104.65472074</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>100.18461663</v>
+        <v>101.06428969</v>
       </c>
       <c r="C226" t="n">
-        <v>94.12457139</v>
+        <v>99.84999594</v>
       </c>
       <c r="D226" t="n">
-        <v>100.54489678</v>
+        <v>100.52339514</v>
       </c>
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="n">
-        <v>114.54566536</v>
+        <v>106.95812995</v>
       </c>
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="n">
-        <v>94.49284772999999</v>
+        <v>109.76403406</v>
       </c>
       <c r="I226" t="n">
-        <v>109.52764968</v>
+        <v>115.3040594</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>100.04947952</v>
+        <v>100.63322365</v>
       </c>
       <c r="C227" t="n">
-        <v>95.78991176</v>
+        <v>100.62584671</v>
       </c>
       <c r="D227" t="n">
-        <v>100.50025671</v>
+        <v>100.69502081</v>
       </c>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="n">
-        <v>111.31074468</v>
+        <v>108.41939085</v>
       </c>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="n">
-        <v>100.30250334</v>
+        <v>111.20311821</v>
       </c>
       <c r="I227" t="n">
-        <v>104.13838593</v>
+        <v>110.47291053</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>100.93269161</v>
+        <v>101.77841804</v>
       </c>
       <c r="C228" t="n">
-        <v>98.44785133000001</v>
+        <v>101.11070056</v>
       </c>
       <c r="D228" t="n">
-        <v>100.43096422</v>
+        <v>100.68147806</v>
       </c>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="n">
-        <v>110.14170757</v>
+        <v>106.58109353</v>
       </c>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="n">
-        <v>105.43181417</v>
+        <v>112.68592632</v>
       </c>
       <c r="I228" t="n">
-        <v>104.65472074</v>
+        <v>101.5134734</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>101.06428969</v>
+        <v>101.88409299</v>
       </c>
       <c r="C229" t="n">
-        <v>99.84999594</v>
+        <v>101.30327906</v>
       </c>
       <c r="D229" t="n">
-        <v>100.52339514</v>
+        <v>100.5525778</v>
       </c>
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="n">
-        <v>106.95812995</v>
+        <v>100.98668344</v>
       </c>
       <c r="G229" t="inlineStr"/>
       <c r="H229" t="n">
-        <v>109.76403406</v>
+        <v>108.93597107</v>
       </c>
       <c r="I229" t="n">
-        <v>115.3040594</v>
+        <v>104.5377542</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>102.49203763</v>
+        <v>101.04930516</v>
       </c>
       <c r="C230" t="n">
-        <v>164.01116419</v>
+        <v>100.73223759</v>
       </c>
       <c r="D230" t="n">
-        <v>100.60183565</v>
+        <v>100.48312606</v>
       </c>
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="n">
-        <v>109.88684731</v>
+        <v>100.51899898</v>
       </c>
       <c r="G230" t="inlineStr"/>
       <c r="H230" t="n">
-        <v>99.35694961999999</v>
+        <v>105.17626415</v>
       </c>
       <c r="I230" t="n">
-        <v>89.76357093999999</v>
+        <v>103.96936714</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>102.22439337</v>
+        <v>97.29131183</v>
       </c>
       <c r="C231" t="n">
-        <v>171.51105073</v>
+        <v>99.63655738999999</v>
       </c>
       <c r="D231" t="n">
-        <v>100.69938043</v>
+        <v>100.49541342</v>
       </c>
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="n">
-        <v>109.66708172</v>
+        <v>95.84117216</v>
       </c>
       <c r="G231" t="inlineStr"/>
       <c r="H231" t="n">
-        <v>92.93710308999999</v>
+        <v>104.64475428</v>
       </c>
       <c r="I231" t="n">
-        <v>103.97657477</v>
+        <v>101.80187958</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>100.99897867</v>
+        <v>96.76016602999999</v>
       </c>
       <c r="C232" t="n">
-        <v>163.47997438</v>
+        <v>104.79273908</v>
       </c>
       <c r="D232" t="n">
-        <v>100.62199657</v>
+        <v>100.45521437</v>
       </c>
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="n">
-        <v>105.8816716</v>
+        <v>98.53185501</v>
       </c>
       <c r="G232" t="inlineStr"/>
       <c r="H232" t="n">
-        <v>91.86452104999999</v>
+        <v>107.56744179</v>
       </c>
       <c r="I232" t="n">
-        <v>110.93934991</v>
+        <v>116.3196405</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>2019年1月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>101.04930516</v>
+        <v>98.52896087000001</v>
       </c>
       <c r="C233" t="n">
-        <v>100.73223759</v>
+        <v>109.49468923</v>
       </c>
       <c r="D233" t="n">
-        <v>100.48312606</v>
+        <v>100.50174179</v>
       </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="n">
-        <v>100.51899898</v>
+        <v>103.81638088</v>
       </c>
       <c r="G233" t="inlineStr"/>
       <c r="H233" t="n">
-        <v>105.17626415</v>
+        <v>111.31406011</v>
       </c>
       <c r="I233" t="n">
-        <v>103.96936714</v>
+        <v>117.34337635</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>97.29131183</v>
+        <v>99.51919632000001</v>
       </c>
       <c r="C234" t="n">
-        <v>99.63655738999999</v>
+        <v>111.6786871</v>
       </c>
       <c r="D234" t="n">
-        <v>100.49541342</v>
+        <v>100.57127049</v>
       </c>
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="n">
-        <v>95.84117216</v>
+        <v>108.63726162</v>
       </c>
       <c r="G234" t="inlineStr"/>
       <c r="H234" t="n">
-        <v>104.64475428</v>
+        <v>126.12030587</v>
       </c>
       <c r="I234" t="n">
-        <v>101.80187958</v>
+        <v>113.22606208</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>96.76016602999999</v>
+        <v>99.32685186</v>
       </c>
       <c r="C235" t="n">
-        <v>104.79273908</v>
+        <v>113.63265868</v>
       </c>
       <c r="D235" t="n">
-        <v>100.45521437</v>
+        <v>100.62493948</v>
       </c>
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="n">
-        <v>98.53185501</v>
+        <v>106.18372922</v>
       </c>
       <c r="G235" t="inlineStr"/>
       <c r="H235" t="n">
-        <v>107.56744179</v>
+        <v>142.45733605</v>
       </c>
       <c r="I235" t="n">
-        <v>116.3196405</v>
+        <v>104.09761456</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>98.52896087000001</v>
+        <v>100.10628696</v>
       </c>
       <c r="C236" t="n">
-        <v>109.49468923</v>
+        <v>117.25935958</v>
       </c>
       <c r="D236" t="n">
-        <v>100.50174179</v>
+        <v>100.65564736</v>
       </c>
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="n">
-        <v>103.81638088</v>
+        <v>109.98034986</v>
       </c>
       <c r="G236" t="inlineStr"/>
       <c r="H236" t="n">
-        <v>111.31406011</v>
+        <v>138.52015904</v>
       </c>
       <c r="I236" t="n">
-        <v>117.34337635</v>
+        <v>104.948658</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>99.51919632000001</v>
+        <v>101.25524258</v>
       </c>
       <c r="C237" t="n">
-        <v>111.6786871</v>
+        <v>129.5176884</v>
       </c>
       <c r="D237" t="n">
-        <v>100.57127049</v>
+        <v>100.82506334</v>
       </c>
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="n">
-        <v>108.63726162</v>
+        <v>103.31979294</v>
       </c>
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="n">
-        <v>126.12030587</v>
+        <v>123.83276053</v>
       </c>
       <c r="I237" t="n">
-        <v>113.22606208</v>
+        <v>99.22470198000001</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>99.32685186</v>
+        <v>102.74917816</v>
       </c>
       <c r="C238" t="n">
-        <v>113.63265868</v>
+        <v>145.11619233</v>
       </c>
       <c r="D238" t="n">
-        <v>100.62493948</v>
+        <v>100.64894479</v>
       </c>
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="n">
-        <v>106.18372922</v>
+        <v>107.72207899</v>
       </c>
       <c r="G238" t="inlineStr"/>
       <c r="H238" t="n">
-        <v>142.45733605</v>
+        <v>107.60317614</v>
       </c>
       <c r="I238" t="n">
-        <v>104.09761456</v>
+        <v>87.92456201</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>100.10628696</v>
+        <v>102.49203763</v>
       </c>
       <c r="C239" t="n">
-        <v>117.25935958</v>
+        <v>164.01116419</v>
       </c>
       <c r="D239" t="n">
-        <v>100.65564736</v>
+        <v>100.60183565</v>
       </c>
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="n">
-        <v>109.98034986</v>
+        <v>109.88684731</v>
       </c>
       <c r="G239" t="inlineStr"/>
       <c r="H239" t="n">
-        <v>138.52015904</v>
+        <v>99.35694961999999</v>
       </c>
       <c r="I239" t="n">
-        <v>104.948658</v>
+        <v>89.76357093999999</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>101.25524258</v>
+        <v>102.22439337</v>
       </c>
       <c r="C240" t="n">
-        <v>129.5176884</v>
+        <v>171.51105073</v>
       </c>
       <c r="D240" t="n">
-        <v>100.82506334</v>
+        <v>100.69938043</v>
       </c>
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="n">
-        <v>103.31979294</v>
+        <v>109.66708172</v>
       </c>
       <c r="G240" t="inlineStr"/>
       <c r="H240" t="n">
-        <v>123.83276053</v>
+        <v>92.93710308999999</v>
       </c>
       <c r="I240" t="n">
-        <v>99.22470198000001</v>
+        <v>103.97657477</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>102.74917816</v>
+        <v>100.99897867</v>
       </c>
       <c r="C241" t="n">
-        <v>145.11619233</v>
+        <v>163.47997438</v>
       </c>
       <c r="D241" t="n">
-        <v>100.64894479</v>
+        <v>100.62199657</v>
       </c>
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="n">
-        <v>107.72207899</v>
+        <v>105.8816716</v>
       </c>
       <c r="G241" t="inlineStr"/>
       <c r="H241" t="n">
-        <v>107.60317614</v>
+        <v>91.86452104999999</v>
       </c>
       <c r="I241" t="n">
-        <v>87.92456201</v>
+        <v>110.93934991</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>102.6</v>
+        <v>103.66469673</v>
       </c>
       <c r="C242" t="n">
-        <v>102.6</v>
+        <v>173.43241835</v>
       </c>
       <c r="D242" t="n">
-        <v>101.5</v>
+        <v>100.39255926</v>
       </c>
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="n">
-        <v>84.3</v>
+        <v>102.20247898</v>
       </c>
       <c r="G242" t="inlineStr"/>
       <c r="H242" t="n">
-        <v>100.9</v>
+        <v>94.96026007</v>
       </c>
       <c r="I242" t="n">
-        <v>116.3</v>
+        <v>117.52175545</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>101</v>
+        <v>102.65456161</v>
       </c>
       <c r="C243" t="n">
-        <v>93.3</v>
+        <v>184.32370234</v>
       </c>
       <c r="D243" t="n">
-        <v>101.3</v>
+        <v>100.72555807</v>
       </c>
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="n">
-        <v>83.40000000000001</v>
+        <v>100.95472355</v>
       </c>
       <c r="G243" t="inlineStr"/>
       <c r="H243" t="n">
-        <v>104.2</v>
+        <v>94.42705476</v>
       </c>
       <c r="I243" t="n">
-        <v>108.2</v>
+        <v>110.82736951</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>101.7</v>
+        <v>102.54740561</v>
       </c>
       <c r="C244" t="n">
-        <v>100.8</v>
+        <v>175.22623384</v>
       </c>
       <c r="D244" t="n">
-        <v>101.3</v>
+        <v>100.71277632</v>
       </c>
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="n">
-        <v>89.5</v>
+        <v>101.54269682</v>
       </c>
       <c r="G244" t="inlineStr"/>
       <c r="H244" t="n">
-        <v>107.1</v>
+        <v>93.80212055</v>
       </c>
       <c r="I244" t="n">
-        <v>106.1</v>
+        <v>99.72316862</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>2020年1月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>103.66469673</v>
+        <v>102.17100429</v>
       </c>
       <c r="C245" t="n">
-        <v>173.43241835</v>
+        <v>164.78665973</v>
       </c>
       <c r="D245" t="n">
-        <v>100.39255926</v>
+        <v>101.19843178</v>
       </c>
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="n">
-        <v>102.20247898</v>
+        <v>97.24858657999999</v>
       </c>
       <c r="G245" t="inlineStr"/>
       <c r="H245" t="n">
-        <v>94.96026007</v>
+        <v>89.63397016</v>
       </c>
       <c r="I245" t="n">
-        <v>117.52175545</v>
+        <v>96.45912479</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>102.65456161</v>
+        <v>103.55710721</v>
       </c>
       <c r="C246" t="n">
-        <v>184.32370234</v>
+        <v>155.92492634</v>
       </c>
       <c r="D246" t="n">
-        <v>100.72555807</v>
+        <v>101.50177909</v>
       </c>
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="n">
-        <v>100.95472355</v>
+        <v>88.16206870000001</v>
       </c>
       <c r="G246" t="inlineStr"/>
       <c r="H246" t="n">
-        <v>94.42705476</v>
+        <v>80.72882219</v>
       </c>
       <c r="I246" t="n">
-        <v>110.82736951</v>
+        <v>91.67307873999999</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>102.54740561</v>
+        <v>104.64260699</v>
       </c>
       <c r="C247" t="n">
-        <v>175.22623384</v>
+        <v>155.54247433</v>
       </c>
       <c r="D247" t="n">
-        <v>100.71277632</v>
+        <v>101.61772622</v>
       </c>
       <c r="E247" t="inlineStr"/>
       <c r="F247" t="n">
-        <v>101.54269682</v>
+        <v>86.95566344</v>
       </c>
       <c r="G247" t="inlineStr"/>
       <c r="H247" t="n">
-        <v>93.80212055</v>
+        <v>70.92138975</v>
       </c>
       <c r="I247" t="n">
-        <v>99.72316862</v>
+        <v>104.69303812</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>102.17100429</v>
+        <v>104.70170462</v>
       </c>
       <c r="C248" t="n">
-        <v>164.78665973</v>
+        <v>159.18124092</v>
       </c>
       <c r="D248" t="n">
-        <v>101.19843178</v>
+        <v>101.62502084</v>
       </c>
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="n">
-        <v>97.24858657999999</v>
+        <v>86.14108612</v>
       </c>
       <c r="G248" t="inlineStr"/>
       <c r="H248" t="n">
-        <v>89.63397016</v>
+        <v>72.44386857000001</v>
       </c>
       <c r="I248" t="n">
-        <v>96.45912479</v>
+        <v>108.01161621</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>103.55710721</v>
+        <v>103.40670582</v>
       </c>
       <c r="C249" t="n">
-        <v>155.92492634</v>
+        <v>141.15630022</v>
       </c>
       <c r="D249" t="n">
-        <v>101.50177909</v>
+        <v>101.4950534</v>
       </c>
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="n">
-        <v>88.16206870000001</v>
+        <v>89.54549298000001</v>
       </c>
       <c r="G249" t="inlineStr"/>
       <c r="H249" t="n">
-        <v>80.72882219</v>
+        <v>80.42723046</v>
       </c>
       <c r="I249" t="n">
-        <v>91.67307873999999</v>
+        <v>111.32284618</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>104.64260699</v>
+        <v>102.63790587</v>
       </c>
       <c r="C250" t="n">
-        <v>155.54247433</v>
+        <v>122.41645347</v>
       </c>
       <c r="D250" t="n">
-        <v>101.61772622</v>
+        <v>101.44076137</v>
       </c>
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="n">
-        <v>86.95566344</v>
+        <v>84.84786848</v>
       </c>
       <c r="G250" t="inlineStr"/>
       <c r="H250" t="n">
-        <v>70.92138975</v>
+        <v>93.65269748999999</v>
       </c>
       <c r="I250" t="n">
-        <v>104.69303812</v>
+        <v>117.20400013</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>104.70170462</v>
+        <v>102.6</v>
       </c>
       <c r="C251" t="n">
-        <v>159.18124092</v>
+        <v>102.6</v>
       </c>
       <c r="D251" t="n">
-        <v>101.62502084</v>
+        <v>101.5</v>
       </c>
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="n">
-        <v>86.14108612</v>
+        <v>84.3</v>
       </c>
       <c r="G251" t="inlineStr"/>
       <c r="H251" t="n">
-        <v>72.44386857000001</v>
+        <v>100.9</v>
       </c>
       <c r="I251" t="n">
-        <v>108.01161621</v>
+        <v>116.3</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>103.40670582</v>
+        <v>101</v>
       </c>
       <c r="C252" t="n">
-        <v>141.15630022</v>
+        <v>93.3</v>
       </c>
       <c r="D252" t="n">
-        <v>101.4950534</v>
+        <v>101.3</v>
       </c>
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="n">
-        <v>89.54549298000001</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="G252" t="inlineStr"/>
       <c r="H252" t="n">
-        <v>80.42723046</v>
+        <v>104.2</v>
       </c>
       <c r="I252" t="n">
-        <v>111.32284618</v>
+        <v>108.2</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>102.63790587</v>
+        <v>101.7</v>
       </c>
       <c r="C253" t="n">
-        <v>122.41645347</v>
+        <v>100.8</v>
       </c>
       <c r="D253" t="n">
-        <v>101.44076137</v>
+        <v>101.3</v>
       </c>
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="n">
-        <v>84.84786848</v>
+        <v>89.5</v>
       </c>
       <c r="G253" t="inlineStr"/>
       <c r="H253" t="n">
-        <v>93.65269748999999</v>
+        <v>107.1</v>
       </c>
       <c r="I253" t="n">
-        <v>117.20400013</v>
+        <v>106.1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>107.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C254" t="n">
-        <v>74.59999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D254" t="n">
-        <v>100.8</v>
+        <v>101.6</v>
       </c>
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="n">
-        <v>112.2</v>
+        <v>100.7</v>
       </c>
       <c r="G254" t="inlineStr"/>
       <c r="H254" t="n">
-        <v>100.5</v>
+        <v>101.2</v>
       </c>
       <c r="I254" t="n">
-        <v>116.4</v>
+        <v>110.5</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>108.1</v>
+        <v>105.8</v>
       </c>
       <c r="C255" t="n">
-        <v>81.2</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D255" t="n">
-        <v>101.5</v>
+        <v>101.3</v>
       </c>
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="n">
-        <v>117.1</v>
+        <v>102.2</v>
       </c>
       <c r="G255" t="inlineStr"/>
       <c r="H255" t="n">
-        <v>104.2</v>
+        <v>102.8</v>
       </c>
       <c r="I255" t="n">
-        <v>130.8</v>
+        <v>103.1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>107.7</v>
+        <v>108</v>
       </c>
       <c r="C256" t="n">
-        <v>78.90000000000001</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="D256" t="n">
-        <v>102.1</v>
+        <v>101.4</v>
       </c>
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="n">
-        <v>112.6</v>
+        <v>102.7</v>
       </c>
       <c r="G256" t="inlineStr"/>
       <c r="H256" t="n">
-        <v>104.9</v>
+        <v>104.1</v>
       </c>
       <c r="I256" t="n">
-        <v>110.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>2021年1月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>99.90000000000001</v>
+        <v>111</v>
       </c>
       <c r="C257" t="n">
-        <v>99.59999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="D257" t="n">
-        <v>101.6</v>
+        <v>101.1</v>
       </c>
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="n">
-        <v>100.7</v>
+        <v>106.3</v>
       </c>
       <c r="G257" t="inlineStr"/>
       <c r="H257" t="n">
-        <v>101.2</v>
+        <v>102.8</v>
       </c>
       <c r="I257" t="n">
-        <v>110.5</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>105.8</v>
+        <v>113.2</v>
       </c>
       <c r="C258" t="n">
-        <v>92.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="D258" t="n">
-        <v>101.3</v>
+        <v>100.9</v>
       </c>
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="n">
-        <v>102.2</v>
+        <v>113.5</v>
       </c>
       <c r="G258" t="inlineStr"/>
       <c r="H258" t="n">
-        <v>102.8</v>
+        <v>101.5</v>
       </c>
       <c r="I258" t="n">
-        <v>103.1</v>
+        <v>105.6</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>108</v>
+        <v>113.6</v>
       </c>
       <c r="C259" t="n">
-        <v>91.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D259" t="n">
-        <v>101.4</v>
+        <v>100.8</v>
       </c>
       <c r="E259" t="inlineStr"/>
       <c r="F259" t="n">
-        <v>102.7</v>
+        <v>117.1</v>
       </c>
       <c r="G259" t="inlineStr"/>
       <c r="H259" t="n">
-        <v>104.1</v>
+        <v>103.3</v>
       </c>
       <c r="I259" t="n">
         <v>100</v>
@@ -7758,163 +7758,163 @@
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>111</v>
+        <v>113.1</v>
       </c>
       <c r="C260" t="n">
-        <v>90.5</v>
+        <v>76</v>
       </c>
       <c r="D260" t="n">
-        <v>101.1</v>
+        <v>100.7</v>
       </c>
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="n">
-        <v>106.3</v>
+        <v>114.7</v>
       </c>
       <c r="G260" t="inlineStr"/>
       <c r="H260" t="n">
-        <v>102.8</v>
+        <v>105.4</v>
       </c>
       <c r="I260" t="n">
-        <v>98.7</v>
+        <v>96.09999999999999</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>113.2</v>
+        <v>111</v>
       </c>
       <c r="C261" t="n">
-        <v>89.7</v>
+        <v>74.3</v>
       </c>
       <c r="D261" t="n">
-        <v>100.9</v>
+        <v>100.7</v>
       </c>
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="n">
-        <v>113.5</v>
+        <v>113.3</v>
       </c>
       <c r="G261" t="inlineStr"/>
       <c r="H261" t="n">
-        <v>101.5</v>
+        <v>105</v>
       </c>
       <c r="I261" t="n">
-        <v>105.6</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>113.6</v>
+        <v>109.3</v>
       </c>
       <c r="C262" t="n">
-        <v>81.90000000000001</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D262" t="n">
-        <v>100.8</v>
+        <v>100.6</v>
       </c>
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="n">
-        <v>117.1</v>
+        <v>112.1</v>
       </c>
       <c r="G262" t="inlineStr"/>
       <c r="H262" t="n">
-        <v>103.3</v>
+        <v>99</v>
       </c>
       <c r="I262" t="n">
-        <v>100</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>113.1</v>
+        <v>107.8</v>
       </c>
       <c r="C263" t="n">
-        <v>76</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="D263" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="n">
-        <v>114.7</v>
+        <v>112.2</v>
       </c>
       <c r="G263" t="inlineStr"/>
       <c r="H263" t="n">
-        <v>105.4</v>
+        <v>100.5</v>
       </c>
       <c r="I263" t="n">
-        <v>96.09999999999999</v>
+        <v>116.4</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>111</v>
+        <v>108.1</v>
       </c>
       <c r="C264" t="n">
-        <v>74.3</v>
+        <v>81.2</v>
       </c>
       <c r="D264" t="n">
-        <v>100.7</v>
+        <v>101.5</v>
       </c>
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="n">
-        <v>113.3</v>
+        <v>117.1</v>
       </c>
       <c r="G264" t="inlineStr"/>
       <c r="H264" t="n">
-        <v>105</v>
+        <v>104.2</v>
       </c>
       <c r="I264" t="n">
-        <v>98.59999999999999</v>
+        <v>130.8</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>109.3</v>
+        <v>107.7</v>
       </c>
       <c r="C265" t="n">
-        <v>72.90000000000001</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="D265" t="n">
-        <v>100.6</v>
+        <v>102.1</v>
       </c>
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="n">
-        <v>112.1</v>
+        <v>112.6</v>
       </c>
       <c r="G265" t="inlineStr"/>
       <c r="H265" t="n">
-        <v>99</v>
+        <v>104.9</v>
       </c>
       <c r="I265" t="n">
-        <v>97.40000000000001</v>
+        <v>110.5</v>
       </c>
     </row>
   </sheetData>
